--- a/Candy Distribution Centers.xlsx
+++ b/Candy Distribution Centers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zziyue/Desktop/Research/Merger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66C53A6-2388-8143-842A-4B828E2CA681}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B43744D-C8D0-6440-93EE-77B80FC4D9E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="474">
   <si>
     <t>Firm</t>
   </si>
@@ -276,9 +276,6 @@
   </si>
   <si>
     <t>Memphis, TN</t>
-  </si>
-  <si>
-    <t>Gum</t>
   </si>
   <si>
     <t>Mints</t>
@@ -2006,8 +2003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -2026,16 +2023,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>2</v>
@@ -2092,7 +2089,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" t="s">
@@ -2230,7 +2227,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I16" t="s">
         <v>44</v>
@@ -2288,7 +2285,7 @@
         <v>56</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" t="s">
@@ -2336,7 +2333,7 @@
         <v>68</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" t="s">
@@ -2351,7 +2348,7 @@
         <v>71</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" t="s">
@@ -2369,7 +2366,7 @@
         <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F27" t="s">
         <v>75</v>
@@ -2386,7 +2383,7 @@
         <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>75</v>
@@ -2403,7 +2400,7 @@
         <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>78</v>
@@ -2420,7 +2417,7 @@
         <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>27</v>
@@ -2437,7 +2434,7 @@
         <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>27</v>
@@ -2454,7 +2451,7 @@
         <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>82</v>
@@ -2467,11 +2464,9 @@
       <c r="A33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -2487,10 +2482,10 @@
         <v>73</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -2506,10 +2501,10 @@
         <v>73</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -2525,15 +2520,15 @@
         <v>73</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>28</v>
@@ -2544,15 +2539,15 @@
         <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>28</v>
@@ -2560,600 +2555,600 @@
     </row>
     <row r="38" spans="1:7" ht="85">
       <c r="A38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" t="s">
         <v>90</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="68">
       <c r="A39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" t="s">
         <v>93</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="68">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="68">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="68">
       <c r="A42" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" t="s">
         <v>98</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="68">
       <c r="A43" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" t="s">
         <v>101</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="102">
       <c r="A45" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" t="s">
         <v>105</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="68">
       <c r="A46" t="s">
+        <v>107</v>
+      </c>
+      <c r="F46" t="s">
         <v>108</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="68">
       <c r="A47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="102">
       <c r="A48" t="s">
+        <v>111</v>
+      </c>
+      <c r="F48" t="s">
         <v>112</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="102">
       <c r="A49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="102">
       <c r="A50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="102">
       <c r="A51" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="102">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="102">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F53" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="102">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="102">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="102">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="102">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="102">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="102">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="102">
       <c r="A60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="102">
       <c r="A61" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="102">
       <c r="A62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="102">
       <c r="A63" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="102">
       <c r="A64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="102">
       <c r="A65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="102">
       <c r="A66" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="102">
       <c r="A67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="102">
       <c r="A68" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="102">
       <c r="A69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F69" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="102">
       <c r="A70" t="s">
+        <v>135</v>
+      </c>
+      <c r="F70" t="s">
         <v>136</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="85">
       <c r="A72" t="s">
+        <v>139</v>
+      </c>
+      <c r="F72" t="s">
         <v>140</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="68">
       <c r="A74" t="s">
+        <v>143</v>
+      </c>
+      <c r="F74" t="s">
         <v>144</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="187">
       <c r="A76" t="s">
+        <v>147</v>
+      </c>
+      <c r="F76" t="s">
         <v>148</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="102">
       <c r="A77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="187">
       <c r="A78" t="s">
+        <v>153</v>
+      </c>
+      <c r="F78" t="s">
         <v>154</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="51">
       <c r="A79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="51">
       <c r="A80" t="s">
+        <v>159</v>
+      </c>
+      <c r="F80" t="s">
         <v>160</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="68">
       <c r="A81" t="s">
+        <v>162</v>
+      </c>
+      <c r="F81" t="s">
         <v>163</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="85">
       <c r="A82" t="s">
+        <v>165</v>
+      </c>
+      <c r="F82" t="s">
         <v>166</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="85">
       <c r="A83" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F83" t="s">
         <v>17</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="85">
       <c r="A84" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="68">
       <c r="A86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="102">
       <c r="A88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="68">
       <c r="A89" t="s">
+        <v>177</v>
+      </c>
+      <c r="F89" t="s">
         <v>178</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="51">
       <c r="A90" t="s">
+        <v>180</v>
+      </c>
+      <c r="F90" t="s">
+        <v>136</v>
+      </c>
+      <c r="G90" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="F90" t="s">
-        <v>137</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="85">
       <c r="A91" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F91" t="s">
         <v>17</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="85">
       <c r="A92" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E92" s="20"/>
       <c r="F92" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="85">
       <c r="A93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
+        <v>185</v>
+      </c>
+      <c r="G93" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="136">
       <c r="A95" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -3161,7 +3156,7 @@
         <v>19</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H95" s="2">
         <v>6</v>
@@ -3169,20 +3164,20 @@
     </row>
     <row r="96" spans="1:8" ht="136">
       <c r="A96" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C96" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E96" s="20"/>
       <c r="F96" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H96" s="2">
         <v>6</v>
@@ -3190,19 +3185,19 @@
     </row>
     <row r="97" spans="1:8" ht="136">
       <c r="A97" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H97" s="2">
         <v>6</v>
@@ -3210,19 +3205,19 @@
     </row>
     <row r="98" spans="1:8" ht="136">
       <c r="A98" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H98" s="2">
         <v>6</v>
@@ -3230,19 +3225,19 @@
     </row>
     <row r="99" spans="1:8" ht="136">
       <c r="A99" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H99" s="2">
         <v>6</v>
@@ -3250,13 +3245,13 @@
     </row>
     <row r="100" spans="1:8" ht="68">
       <c r="A100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" t="s">
         <v>193</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3372,7 +3367,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1">
       <c r="B1" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C1" s="4">
         <v>2006</v>
@@ -3393,7 +3388,7 @@
         <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -3413,7 +3408,7 @@
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -3433,7 +3428,7 @@
         <v>182</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -3453,7 +3448,7 @@
         <v>238</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -3473,7 +3468,7 @@
         <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -3493,7 +3488,7 @@
         <v>218</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -3513,7 +3508,7 @@
         <v>219</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -3533,7 +3528,7 @@
         <v>194</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
@@ -3553,7 +3548,7 @@
         <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -3573,7 +3568,7 @@
         <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -3593,7 +3588,7 @@
         <v>150</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
@@ -3613,7 +3608,7 @@
         <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -3633,7 +3628,7 @@
         <v>178</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -3653,7 +3648,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -3673,7 +3668,7 @@
         <v>103</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
@@ -3693,7 +3688,7 @@
         <v>229</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
@@ -3713,7 +3708,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>
@@ -3733,7 +3728,7 @@
         <v>208</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C19" t="s">
         <v>41</v>
@@ -3753,7 +3748,7 @@
         <v>192</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" t="s">
         <v>45</v>
@@ -3773,7 +3768,7 @@
         <v>163</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C21" t="s">
         <v>45</v>
@@ -3793,7 +3788,7 @@
         <v>122</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" t="s">
         <v>45</v>
@@ -3813,7 +3808,7 @@
         <v>135</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C23" t="s">
         <v>45</v>
@@ -3833,7 +3828,7 @@
         <v>61</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C24" t="s">
         <v>47</v>
@@ -3853,7 +3848,7 @@
         <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C25" t="s">
         <v>47</v>
@@ -3873,7 +3868,7 @@
         <v>189</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C26" t="s">
         <v>47</v>
@@ -3893,7 +3888,7 @@
         <v>209</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C27" t="s">
         <v>47</v>
@@ -3913,7 +3908,7 @@
         <v>186</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C28" t="s">
         <v>47</v>
@@ -3933,7 +3928,7 @@
         <v>62</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C29" t="s">
         <v>47</v>
@@ -3953,7 +3948,7 @@
         <v>132</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C30" t="s">
         <v>47</v>
@@ -3973,7 +3968,7 @@
         <v>241</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C31" t="s">
         <v>47</v>
@@ -3993,7 +3988,7 @@
         <v>142</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C32" t="s">
         <v>47</v>
@@ -4013,7 +4008,7 @@
         <v>67</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C33" t="s">
         <v>47</v>
@@ -4033,7 +4028,7 @@
         <v>216</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C34" t="s">
         <v>50</v>
@@ -4053,7 +4048,7 @@
         <v>181</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C35" t="s">
         <v>53</v>
@@ -4073,7 +4068,7 @@
         <v>196</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C36" t="s">
         <v>53</v>
@@ -4093,7 +4088,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C37" t="s">
         <v>56</v>
@@ -4113,7 +4108,7 @@
         <v>149</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C38" t="s">
         <v>56</v>
@@ -4133,7 +4128,7 @@
         <v>63</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C39" t="s">
         <v>59</v>
@@ -4153,7 +4148,7 @@
         <v>188</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C40" t="s">
         <v>59</v>
@@ -4173,7 +4168,7 @@
         <v>140</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C41" t="s">
         <v>62</v>
@@ -4193,7 +4188,7 @@
         <v>231</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C42" t="s">
         <v>65</v>
@@ -4213,7 +4208,7 @@
         <v>131</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
@@ -4233,7 +4228,7 @@
         <v>51</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C44" t="s">
         <v>71</v>
@@ -4253,7 +4248,7 @@
         <v>171</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C45" t="s">
         <v>71</v>
@@ -4273,7 +4268,7 @@
         <v>108</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C46" t="s">
         <v>73</v>
@@ -4293,7 +4288,7 @@
         <v>225</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C47" t="s">
         <v>73</v>
@@ -4313,7 +4308,7 @@
         <v>71</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C48" t="s">
         <v>73</v>
@@ -4333,7 +4328,7 @@
         <v>69</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C49" t="s">
         <v>73</v>
@@ -4353,7 +4348,7 @@
         <v>37</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C50" t="s">
         <v>73</v>
@@ -4373,7 +4368,7 @@
         <v>120</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C51" t="s">
         <v>73</v>
@@ -4393,7 +4388,7 @@
         <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C52" t="s">
         <v>73</v>
@@ -4413,7 +4408,7 @@
         <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C53" t="s">
         <v>73</v>
@@ -4433,7 +4428,7 @@
         <v>139</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C54" t="s">
         <v>73</v>
@@ -4453,7 +4448,7 @@
         <v>22</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C55" t="s">
         <v>73</v>
@@ -4473,7 +4468,7 @@
         <v>172</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C56" t="s">
         <v>73</v>
@@ -4493,7 +4488,7 @@
         <v>27</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C57" t="s">
         <v>73</v>
@@ -4513,7 +4508,7 @@
         <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C58" t="s">
         <v>73</v>
@@ -4533,7 +4528,7 @@
         <v>30</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C59" t="s">
         <v>73</v>
@@ -4553,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C60" t="s">
         <v>73</v>
@@ -4573,7 +4568,7 @@
         <v>191</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C61" t="s">
         <v>73</v>
@@ -4593,7 +4588,7 @@
         <v>179</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C62" t="s">
         <v>73</v>
@@ -4613,7 +4608,7 @@
         <v>43</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C63" t="s">
         <v>73</v>
@@ -4633,7 +4628,7 @@
         <v>119</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C64" t="s">
         <v>73</v>
@@ -4653,7 +4648,7 @@
         <v>14</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C65" t="s">
         <v>73</v>
@@ -4673,7 +4668,7 @@
         <v>206</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -4693,7 +4688,7 @@
         <v>9</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C67" t="s">
         <v>73</v>
@@ -4713,7 +4708,7 @@
         <v>141</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C68" t="s">
         <v>73</v>
@@ -4733,7 +4728,7 @@
         <v>50</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C69" t="s">
         <v>73</v>
@@ -4753,7 +4748,7 @@
         <v>214</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C70" t="s">
         <v>73</v>
@@ -4773,7 +4768,7 @@
         <v>41</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C71" t="s">
         <v>73</v>
@@ -4793,7 +4788,7 @@
         <v>144</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C72" t="s">
         <v>73</v>
@@ -4813,7 +4808,7 @@
         <v>40</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C73" t="s">
         <v>73</v>
@@ -4833,7 +4828,7 @@
         <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C74" t="s">
         <v>73</v>
@@ -4853,7 +4848,7 @@
         <v>154</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C75" t="s">
         <v>73</v>
@@ -4873,7 +4868,7 @@
         <v>143</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C76" t="s">
         <v>73</v>
@@ -4893,7 +4888,7 @@
         <v>167</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C77" t="s">
         <v>73</v>
@@ -4913,7 +4908,7 @@
         <v>113</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C78" t="s">
         <v>73</v>
@@ -4933,7 +4928,7 @@
         <v>21</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C79" t="s">
         <v>73</v>
@@ -4953,7 +4948,7 @@
         <v>60</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C80" t="s">
         <v>73</v>
@@ -4973,7 +4968,7 @@
         <v>165</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C81" t="s">
         <v>73</v>
@@ -4993,7 +4988,7 @@
         <v>213</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C82" t="s">
         <v>73</v>
@@ -5013,7 +5008,7 @@
         <v>156</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C83" t="s">
         <v>73</v>
@@ -5033,7 +5028,7 @@
         <v>199</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C84" t="s">
         <v>73</v>
@@ -5053,7 +5048,7 @@
         <v>193</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C85" t="s">
         <v>73</v>
@@ -5073,7 +5068,7 @@
         <v>190</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C86" t="s">
         <v>73</v>
@@ -5093,7 +5088,7 @@
         <v>162</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C87" t="s">
         <v>73</v>
@@ -5113,7 +5108,7 @@
         <v>168</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C88" t="s">
         <v>73</v>
@@ -5133,7 +5128,7 @@
         <v>129</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C89" t="s">
         <v>73</v>
@@ -5153,7 +5148,7 @@
         <v>85</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C90" t="s">
         <v>73</v>
@@ -5173,7 +5168,7 @@
         <v>53</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C91" t="s">
         <v>73</v>
@@ -5193,7 +5188,7 @@
         <v>121</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C92" t="s">
         <v>73</v>
@@ -5213,7 +5208,7 @@
         <v>39</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C93" t="s">
         <v>73</v>
@@ -5233,7 +5228,7 @@
         <v>19</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C94" t="s">
         <v>73</v>
@@ -5253,7 +5248,7 @@
         <v>31</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C95" t="s">
         <v>73</v>
@@ -5273,7 +5268,7 @@
         <v>104</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C96" t="s">
         <v>73</v>
@@ -5293,7 +5288,7 @@
         <v>207</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C97" t="s">
         <v>73</v>
@@ -5313,7 +5308,7 @@
         <v>25</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C98" t="s">
         <v>73</v>
@@ -5333,7 +5328,7 @@
         <v>175</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C99" t="s">
         <v>73</v>
@@ -5353,7 +5348,7 @@
         <v>1</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C100" t="s">
         <v>73</v>
@@ -5373,7 +5368,7 @@
         <v>96</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C101" t="s">
         <v>73</v>
@@ -5393,7 +5388,7 @@
         <v>170</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C102" t="s">
         <v>73</v>
@@ -5413,7 +5408,7 @@
         <v>46</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C103" t="s">
         <v>73</v>
@@ -5433,7 +5428,7 @@
         <v>79</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C104" t="s">
         <v>73</v>
@@ -5453,7 +5448,7 @@
         <v>114</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C105" t="s">
         <v>73</v>
@@ -5473,19 +5468,19 @@
         <v>223</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C106" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D106" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E106" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F106" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -5493,19 +5488,19 @@
         <v>44</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C107" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D107" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E107" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F107" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -5513,19 +5508,19 @@
         <v>164</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C108" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D108" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E108" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F108" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -5533,19 +5528,19 @@
         <v>100</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C109" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D109" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E109" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F109" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -5553,19 +5548,19 @@
         <v>55</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C110" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D110" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E110" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F110" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -5573,19 +5568,19 @@
         <v>92</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C111" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D111" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E111" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F111" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -5593,19 +5588,19 @@
         <v>155</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C112" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D112" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E112" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F112" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -5613,19 +5608,19 @@
         <v>226</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C113" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D113" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E113" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F113" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -5633,19 +5628,19 @@
         <v>159</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C114" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D114" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E114" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F114" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -5653,19 +5648,19 @@
         <v>29</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C115" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D115" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E115" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F115" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -5673,19 +5668,19 @@
         <v>72</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C116" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D116" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E116" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F116" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -5693,19 +5688,19 @@
         <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C117" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D117" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E117" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F117" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -5713,19 +5708,19 @@
         <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C118" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D118" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E118" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F118" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -5733,19 +5728,19 @@
         <v>125</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C119" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D119" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E119" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F119" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -5753,19 +5748,19 @@
         <v>195</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C120" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D120" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E120" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F120" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -5773,19 +5768,19 @@
         <v>90</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C121" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D121" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E121" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F121" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -5793,19 +5788,19 @@
         <v>240</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C122" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D122" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E122" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F122" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -5813,19 +5808,19 @@
         <v>180</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C123" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D123" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E123" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F123" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -5833,19 +5828,19 @@
         <v>38</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C124" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D124" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E124" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F124" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -5853,19 +5848,19 @@
         <v>215</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C125" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D125" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E125" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F125" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -5873,19 +5868,19 @@
         <v>161</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C126" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D126" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E126" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F126" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -5893,19 +5888,19 @@
         <v>59</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C127" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D127" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E127" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F127" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -5913,19 +5908,19 @@
         <v>203</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C128" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D128" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E128" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F128" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -5933,19 +5928,19 @@
         <v>20</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C129" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D129" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E129" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F129" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -5953,19 +5948,19 @@
         <v>148</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C130" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D130" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E130" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F130" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -5973,19 +5968,19 @@
         <v>176</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C131" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D131" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E131" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F131" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -5993,19 +5988,19 @@
         <v>64</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C132" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D132" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E132" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F132" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -6013,19 +6008,19 @@
         <v>174</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C133" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D133" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E133" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F133" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -6033,19 +6028,19 @@
         <v>128</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C134" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D134" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E134" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F134" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -6053,19 +6048,19 @@
         <v>146</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C135" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D135" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E135" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F135" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -6073,19 +6068,19 @@
         <v>118</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C136" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D136" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E136" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F136" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6093,19 +6088,19 @@
         <v>78</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C137" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D137" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E137" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F137" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -6113,19 +6108,19 @@
         <v>36</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C138" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D138" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E138" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F138" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -6133,19 +6128,19 @@
         <v>169</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C139" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D139" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E139" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F139" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -6153,19 +6148,19 @@
         <v>24</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C140" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D140" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E140" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F140" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -6173,19 +6168,19 @@
         <v>12</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C141" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D141" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E141" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F141" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -6193,19 +6188,19 @@
         <v>145</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C142" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D142" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E142" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F142" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -6213,19 +6208,19 @@
         <v>97</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C143" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D143" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E143" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F143" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -6233,19 +6228,19 @@
         <v>236</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F144" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -6253,19 +6248,19 @@
         <v>56</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C145" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D145" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E145" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F145" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -6273,19 +6268,19 @@
         <v>211</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C146" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D146" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E146" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F146" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -6293,19 +6288,19 @@
         <v>73</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C147" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D147" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E147" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F147" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -6313,19 +6308,19 @@
         <v>7</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C148" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D148" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E148" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F148" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -6333,19 +6328,19 @@
         <v>11</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C149" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D149" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E149" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F149" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -6353,19 +6348,19 @@
         <v>197</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C150" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D150" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E150" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F150" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -6373,19 +6368,19 @@
         <v>111</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C151" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D151" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E151" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F151" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -6393,19 +6388,19 @@
         <v>109</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C152" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D152" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E152" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F152" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -6413,19 +6408,19 @@
         <v>76</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C153" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D153" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E153" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F153" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -6433,19 +6428,19 @@
         <v>95</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C154" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D154" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E154" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F154" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -6453,19 +6448,19 @@
         <v>33</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C155" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D155" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E155" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F155" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -6473,19 +6468,19 @@
         <v>224</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C156" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D156" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E156" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F156" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -6493,19 +6488,19 @@
         <v>32</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C157" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D157" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E157" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F157" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -6513,19 +6508,19 @@
         <v>75</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C158" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D158" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E158" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F158" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -6533,19 +6528,19 @@
         <v>4</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C159" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D159" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E159" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F159" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -6553,19 +6548,19 @@
         <v>185</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C160" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D160" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E160" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F160" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -6573,19 +6568,19 @@
         <v>74</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C161" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D161" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E161" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F161" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -6593,19 +6588,19 @@
         <v>204</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C162" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D162" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E162" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F162" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -6613,19 +6608,19 @@
         <v>16</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C163" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D163" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E163" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F163" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -6633,19 +6628,19 @@
         <v>202</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C164" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D164" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E164" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F164" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -6653,19 +6648,19 @@
         <v>136</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C165" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D165" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E165" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F165" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -6673,19 +6668,19 @@
         <v>153</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C166" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D166" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E166" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F166" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -6693,19 +6688,19 @@
         <v>26</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C167" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D167" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E167" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F167" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -6713,19 +6708,19 @@
         <v>239</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C168" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D168" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E168" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F168" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -6733,19 +6728,19 @@
         <v>18</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C169" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D169" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E169" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F169" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -6753,19 +6748,19 @@
         <v>65</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C170" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D170" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E170" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F170" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -6773,19 +6768,19 @@
         <v>3</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C171" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D171" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E171" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F171" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -6793,19 +6788,19 @@
         <v>68</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C172" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D172" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E172" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F172" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -6813,13 +6808,13 @@
         <v>86</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C173" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D173" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E173" t="s">
         <v>43</v>
@@ -6833,10 +6828,10 @@
         <v>77</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C174" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D174" t="s">
         <v>43</v>
@@ -6853,19 +6848,19 @@
         <v>217</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C175" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D175" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E175" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F175" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -6873,19 +6868,19 @@
         <v>230</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C176" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D176" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E176" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F176" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -6893,19 +6888,19 @@
         <v>23</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C177" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D177" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E177" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F177" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -6913,19 +6908,19 @@
         <v>84</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C178" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D178" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E178" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F178" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -6933,19 +6928,19 @@
         <v>28</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C179" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D179" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E179" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F179" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -6953,19 +6948,19 @@
         <v>101</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C180" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D180" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E180" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F180" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -6973,19 +6968,19 @@
         <v>66</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C181" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D181" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E181" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F181" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -6993,19 +6988,19 @@
         <v>82</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C182" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D182" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E182" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F182" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -7013,19 +7008,19 @@
         <v>166</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C183" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D183" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E183" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F183" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -7033,19 +7028,19 @@
         <v>232</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C184" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D184" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E184" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F184" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -7053,19 +7048,19 @@
         <v>83</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C185" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D185" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E185" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F185" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -7073,19 +7068,19 @@
         <v>88</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C186" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D186" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E186" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F186" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -7093,19 +7088,19 @@
         <v>184</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C187" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D187" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E187" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F187" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -7113,19 +7108,19 @@
         <v>91</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C188" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D188" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E188" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F188" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -7133,19 +7128,19 @@
         <v>205</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C189" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D189" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E189" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F189" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -7153,19 +7148,19 @@
         <v>157</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C190" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D190" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E190" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F190" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -7173,19 +7168,19 @@
         <v>134</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C191" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D191" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E191" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F191" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -7193,19 +7188,19 @@
         <v>222</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C192" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D192" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E192" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F192" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -7213,19 +7208,19 @@
         <v>158</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C193" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D193" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E193" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F193" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -7233,19 +7228,19 @@
         <v>110</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C194" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D194" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E194" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F194" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -7253,19 +7248,19 @@
         <v>235</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C195" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D195" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E195" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F195" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -7273,19 +7268,19 @@
         <v>200</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C196" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D196" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E196" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F196" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -7293,19 +7288,19 @@
         <v>89</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C197" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D197" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E197" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F197" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -7313,19 +7308,19 @@
         <v>127</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C198" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D198" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E198" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F198" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -7333,19 +7328,19 @@
         <v>54</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C199" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D199" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E199" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F199" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -7353,19 +7348,19 @@
         <v>237</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C200" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D200" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E200" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F200" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -7373,19 +7368,19 @@
         <v>47</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C201" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D201" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E201" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F201" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -7393,19 +7388,19 @@
         <v>48</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C202" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D202" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E202" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F202" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -7413,19 +7408,19 @@
         <v>221</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C203" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D203" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E203" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F203" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -7433,19 +7428,19 @@
         <v>10</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C204" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D204" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E204" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F204" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -7453,19 +7448,19 @@
         <v>117</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C205" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D205" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E205" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F205" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -7473,19 +7468,19 @@
         <v>138</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C206" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D206" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E206" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F206" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -7493,19 +7488,19 @@
         <v>81</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C207" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D207" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E207" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F207" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -7513,19 +7508,19 @@
         <v>160</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C208" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D208" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E208" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F208" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -7533,19 +7528,19 @@
         <v>212</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C209" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D209" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E209" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F209" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -7553,19 +7548,19 @@
         <v>6</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C210" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D210" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E210" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F210" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -7573,19 +7568,19 @@
         <v>106</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C211" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D211" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E211" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F211" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -7593,19 +7588,19 @@
         <v>147</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C212" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D212" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E212" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F212" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -7613,19 +7608,19 @@
         <v>57</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C213" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D213" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E213" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F213" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -7633,19 +7628,19 @@
         <v>151</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C214" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D214" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E214" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F214" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -7653,19 +7648,19 @@
         <v>124</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C215" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D215" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E215" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F215" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -7673,19 +7668,19 @@
         <v>173</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C216" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D216" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E216" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F216" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -7693,19 +7688,19 @@
         <v>98</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C217" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D217" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E217" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F217" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -7713,19 +7708,19 @@
         <v>233</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C218" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D218" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E218" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F218" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -7733,19 +7728,19 @@
         <v>227</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C219" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D219" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E219" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F219" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -7753,19 +7748,19 @@
         <v>70</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C220" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D220" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E220" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F220" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -7773,19 +7768,19 @@
         <v>102</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C221" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D221" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E221" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F221" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -7793,19 +7788,19 @@
         <v>35</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C222" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D222" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E222" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F222" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -7813,19 +7808,19 @@
         <v>152</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C223" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D223" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E223" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F223" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -7833,19 +7828,19 @@
         <v>45</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C224" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D224" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E224" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F224" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -7853,19 +7848,19 @@
         <v>15</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C225" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D225" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E225" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F225" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -7873,19 +7868,19 @@
         <v>34</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C226" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D226" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E226" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F226" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -7893,19 +7888,19 @@
         <v>133</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C227" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D227" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E227" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F227" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -7913,19 +7908,19 @@
         <v>201</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C228" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D228" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E228" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F228" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -7933,19 +7928,19 @@
         <v>123</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C229" t="s">
         <v>424</v>
       </c>
-      <c r="C229" t="s">
-        <v>425</v>
-      </c>
       <c r="D229" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E229" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F229" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -7953,19 +7948,19 @@
         <v>5</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C230" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D230" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E230" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F230" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -7973,19 +7968,19 @@
         <v>210</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C231" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D231" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E231" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F231" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -7993,19 +7988,19 @@
         <v>183</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C232" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D232" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E232" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F232" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -8013,19 +8008,19 @@
         <v>220</v>
       </c>
       <c r="B233" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C233" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D233" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E233" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F233" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -8033,19 +8028,19 @@
         <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C234" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D234" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E234" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F234" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -8053,19 +8048,19 @@
         <v>228</v>
       </c>
       <c r="B235" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C235" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D235" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E235" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F235" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -8073,19 +8068,19 @@
         <v>198</v>
       </c>
       <c r="B236" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C236" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D236" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E236" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F236" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -8093,19 +8088,19 @@
         <v>112</v>
       </c>
       <c r="B237" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C237" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D237" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E237" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F237" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -8113,19 +8108,19 @@
         <v>52</v>
       </c>
       <c r="B238" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C238" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D238" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E238" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F238" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -8133,19 +8128,19 @@
         <v>130</v>
       </c>
       <c r="B239" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G239" s="2"/>
     </row>
@@ -8154,19 +8149,19 @@
         <v>177</v>
       </c>
       <c r="B240" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G240" s="2"/>
     </row>
@@ -8175,19 +8170,19 @@
         <v>93</v>
       </c>
       <c r="B241" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G241" s="2"/>
     </row>
@@ -8196,19 +8191,19 @@
         <v>187</v>
       </c>
       <c r="B242" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G242" s="2"/>
     </row>
@@ -8217,19 +8212,19 @@
         <v>13</v>
       </c>
       <c r="B243" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C243" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D243" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E243" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F243" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -8258,19 +8253,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="58" customHeight="1">
       <c r="B1" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -8278,14 +8273,14 @@
         <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8293,7 +8288,7 @@
         <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -8304,7 +8299,7 @@
         <v>182</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -8315,7 +8310,7 @@
         <v>238</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -8326,7 +8321,7 @@
         <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -8337,13 +8332,13 @@
         <v>218</v>
       </c>
       <c r="B7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8351,7 +8346,7 @@
         <v>219</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -8362,7 +8357,7 @@
         <v>194</v>
       </c>
       <c r="B9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
@@ -8373,13 +8368,13 @@
         <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8387,13 +8382,13 @@
         <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -8401,13 +8396,13 @@
         <v>225</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8415,13 +8410,13 @@
         <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -8429,13 +8424,13 @@
         <v>69</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -8443,13 +8438,13 @@
         <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -8457,7 +8452,7 @@
         <v>126</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>26</v>
@@ -8468,7 +8463,7 @@
         <v>150</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>26</v>
@@ -8480,7 +8475,7 @@
         <v>80</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>26</v>
@@ -8491,7 +8486,7 @@
         <v>178</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>26</v>
@@ -8502,7 +8497,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>30</v>
@@ -8513,7 +8508,7 @@
         <v>103</v>
       </c>
       <c r="B21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>30</v>
@@ -8524,7 +8519,7 @@
         <v>229</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
@@ -8535,7 +8530,7 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>38</v>
@@ -8546,7 +8541,7 @@
         <v>208</v>
       </c>
       <c r="B24" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>41</v>
@@ -8557,7 +8552,7 @@
         <v>192</v>
       </c>
       <c r="B25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>45</v>
@@ -8568,7 +8563,7 @@
         <v>163</v>
       </c>
       <c r="B26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>45</v>
@@ -8579,7 +8574,7 @@
         <v>122</v>
       </c>
       <c r="B27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>45</v>
@@ -8590,7 +8585,7 @@
         <v>135</v>
       </c>
       <c r="B28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>45</v>
@@ -8601,13 +8596,13 @@
         <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -8615,13 +8610,13 @@
         <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -8629,13 +8624,13 @@
         <v>189</v>
       </c>
       <c r="B31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -8643,13 +8638,13 @@
         <v>209</v>
       </c>
       <c r="B32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -8657,13 +8652,13 @@
         <v>186</v>
       </c>
       <c r="B33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -8671,13 +8666,13 @@
         <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -8685,13 +8680,13 @@
         <v>132</v>
       </c>
       <c r="B35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -8699,13 +8694,13 @@
         <v>241</v>
       </c>
       <c r="B36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -8713,13 +8708,13 @@
         <v>142</v>
       </c>
       <c r="B37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -8727,13 +8722,13 @@
         <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -8741,7 +8736,7 @@
         <v>216</v>
       </c>
       <c r="B39" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>50</v>
@@ -8752,13 +8747,13 @@
         <v>181</v>
       </c>
       <c r="B40" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -8766,13 +8761,13 @@
         <v>196</v>
       </c>
       <c r="B41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -8780,7 +8775,7 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>56</v>
@@ -8791,7 +8786,7 @@
         <v>149</v>
       </c>
       <c r="B43" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>56</v>
@@ -8802,7 +8797,7 @@
         <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>59</v>
@@ -8813,7 +8808,7 @@
         <v>188</v>
       </c>
       <c r="B45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>59</v>
@@ -8824,7 +8819,7 @@
         <v>140</v>
       </c>
       <c r="B46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>62</v>
@@ -8835,7 +8830,7 @@
         <v>231</v>
       </c>
       <c r="B47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>65</v>
@@ -8846,7 +8841,7 @@
         <v>131</v>
       </c>
       <c r="B48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>68</v>
@@ -8857,7 +8852,7 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>71</v>
@@ -8868,7 +8863,7 @@
         <v>171</v>
       </c>
       <c r="B50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>71</v>
@@ -8879,7 +8874,7 @@
         <v>120</v>
       </c>
       <c r="B51" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>73</v>
@@ -8890,7 +8885,7 @@
         <v>105</v>
       </c>
       <c r="B52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>73</v>
@@ -8901,7 +8896,7 @@
         <v>99</v>
       </c>
       <c r="B53" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>73</v>
@@ -8912,7 +8907,7 @@
         <v>139</v>
       </c>
       <c r="B54" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>73</v>
@@ -8923,7 +8918,7 @@
         <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>73</v>
@@ -8934,7 +8929,7 @@
         <v>172</v>
       </c>
       <c r="B56" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>73</v>
@@ -8945,7 +8940,7 @@
         <v>27</v>
       </c>
       <c r="B57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>73</v>
@@ -8956,7 +8951,7 @@
         <v>107</v>
       </c>
       <c r="B58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>73</v>
@@ -8967,7 +8962,7 @@
         <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>73</v>
@@ -8978,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>73</v>
@@ -8989,7 +8984,7 @@
         <v>191</v>
       </c>
       <c r="B61" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>73</v>
@@ -9000,7 +8995,7 @@
         <v>179</v>
       </c>
       <c r="B62" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>73</v>
@@ -9011,7 +9006,7 @@
         <v>43</v>
       </c>
       <c r="B63" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>73</v>
@@ -9022,7 +9017,7 @@
         <v>119</v>
       </c>
       <c r="B64" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>73</v>
@@ -9033,7 +9028,7 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>73</v>
@@ -9044,7 +9039,7 @@
         <v>206</v>
       </c>
       <c r="B66" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>73</v>
@@ -9055,7 +9050,7 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>73</v>
@@ -9066,7 +9061,7 @@
         <v>141</v>
       </c>
       <c r="B68" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>73</v>
@@ -9077,7 +9072,7 @@
         <v>50</v>
       </c>
       <c r="B69" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>73</v>
@@ -9088,7 +9083,7 @@
         <v>214</v>
       </c>
       <c r="B70" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>73</v>
@@ -9099,7 +9094,7 @@
         <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>73</v>
@@ -9110,7 +9105,7 @@
         <v>144</v>
       </c>
       <c r="B72" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>73</v>
@@ -9121,7 +9116,7 @@
         <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>73</v>
@@ -9132,7 +9127,7 @@
         <v>94</v>
       </c>
       <c r="B74" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>73</v>
@@ -9143,7 +9138,7 @@
         <v>154</v>
       </c>
       <c r="B75" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>73</v>
@@ -9154,7 +9149,7 @@
         <v>143</v>
       </c>
       <c r="B76" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>73</v>
@@ -9165,7 +9160,7 @@
         <v>167</v>
       </c>
       <c r="B77" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>73</v>
@@ -9176,7 +9171,7 @@
         <v>113</v>
       </c>
       <c r="B78" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>73</v>
@@ -9187,7 +9182,7 @@
         <v>21</v>
       </c>
       <c r="B79" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>73</v>
@@ -9198,7 +9193,7 @@
         <v>60</v>
       </c>
       <c r="B80" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>73</v>
@@ -9209,7 +9204,7 @@
         <v>165</v>
       </c>
       <c r="B81" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>73</v>
@@ -9220,7 +9215,7 @@
         <v>213</v>
       </c>
       <c r="B82" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>73</v>
@@ -9231,7 +9226,7 @@
         <v>156</v>
       </c>
       <c r="B83" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>73</v>
@@ -9242,7 +9237,7 @@
         <v>199</v>
       </c>
       <c r="B84" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>73</v>
@@ -9253,7 +9248,7 @@
         <v>193</v>
       </c>
       <c r="B85" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>73</v>
@@ -9264,7 +9259,7 @@
         <v>190</v>
       </c>
       <c r="B86" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>73</v>
@@ -9275,7 +9270,7 @@
         <v>162</v>
       </c>
       <c r="B87" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>73</v>
@@ -9286,7 +9281,7 @@
         <v>168</v>
       </c>
       <c r="B88" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>73</v>
@@ -9297,7 +9292,7 @@
         <v>129</v>
       </c>
       <c r="B89" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>73</v>
@@ -9308,7 +9303,7 @@
         <v>85</v>
       </c>
       <c r="B90" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>73</v>
@@ -9319,7 +9314,7 @@
         <v>53</v>
       </c>
       <c r="B91" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>73</v>
@@ -9330,7 +9325,7 @@
         <v>121</v>
       </c>
       <c r="B92" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>73</v>
@@ -9341,7 +9336,7 @@
         <v>39</v>
       </c>
       <c r="B93" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>73</v>
@@ -9352,7 +9347,7 @@
         <v>19</v>
       </c>
       <c r="B94" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>73</v>
@@ -9363,7 +9358,7 @@
         <v>31</v>
       </c>
       <c r="B95" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>73</v>
@@ -9374,7 +9369,7 @@
         <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C96" s="13" t="s">
         <v>73</v>
@@ -9385,7 +9380,7 @@
         <v>207</v>
       </c>
       <c r="B97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>73</v>
@@ -9396,7 +9391,7 @@
         <v>25</v>
       </c>
       <c r="B98" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C98" s="13" t="s">
         <v>73</v>
@@ -9407,7 +9402,7 @@
         <v>175</v>
       </c>
       <c r="B99" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>73</v>
@@ -9418,7 +9413,7 @@
         <v>1</v>
       </c>
       <c r="B100" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>73</v>
@@ -9429,7 +9424,7 @@
         <v>96</v>
       </c>
       <c r="B101" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>73</v>
@@ -9440,7 +9435,7 @@
         <v>170</v>
       </c>
       <c r="B102" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>73</v>
@@ -9451,13 +9446,13 @@
         <v>46</v>
       </c>
       <c r="B103" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E103" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -9465,13 +9460,13 @@
         <v>79</v>
       </c>
       <c r="B104" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E104" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -9479,13 +9474,13 @@
         <v>114</v>
       </c>
       <c r="B105" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E105" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -9493,10 +9488,10 @@
         <v>223</v>
       </c>
       <c r="B106" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -9504,10 +9499,10 @@
         <v>44</v>
       </c>
       <c r="B107" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -9515,10 +9510,10 @@
         <v>164</v>
       </c>
       <c r="B108" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -9526,10 +9521,10 @@
         <v>100</v>
       </c>
       <c r="B109" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -9537,10 +9532,10 @@
         <v>55</v>
       </c>
       <c r="B110" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -9548,13 +9543,13 @@
         <v>92</v>
       </c>
       <c r="B111" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D111" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -9562,13 +9557,13 @@
         <v>155</v>
       </c>
       <c r="B112" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D112" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -9576,13 +9571,13 @@
         <v>226</v>
       </c>
       <c r="B113" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D113" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -9590,13 +9585,13 @@
         <v>159</v>
       </c>
       <c r="B114" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D114" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -9604,13 +9599,13 @@
         <v>29</v>
       </c>
       <c r="B115" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D115" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -9618,10 +9613,10 @@
         <v>72</v>
       </c>
       <c r="B116" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -9629,10 +9624,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -9640,10 +9635,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -9651,10 +9646,10 @@
         <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -9662,10 +9657,10 @@
         <v>195</v>
       </c>
       <c r="B120" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -9673,10 +9668,10 @@
         <v>90</v>
       </c>
       <c r="B121" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -9684,10 +9679,10 @@
         <v>240</v>
       </c>
       <c r="B122" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -9695,10 +9690,10 @@
         <v>180</v>
       </c>
       <c r="B123" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -9706,10 +9701,10 @@
         <v>38</v>
       </c>
       <c r="B124" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -9717,10 +9712,10 @@
         <v>215</v>
       </c>
       <c r="B125" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -9728,10 +9723,10 @@
         <v>161</v>
       </c>
       <c r="B126" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -9739,10 +9734,10 @@
         <v>59</v>
       </c>
       <c r="B127" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -9750,10 +9745,10 @@
         <v>203</v>
       </c>
       <c r="B128" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -9761,10 +9756,10 @@
         <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -9772,10 +9767,10 @@
         <v>148</v>
       </c>
       <c r="B130" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -9783,10 +9778,10 @@
         <v>176</v>
       </c>
       <c r="B131" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -9794,10 +9789,10 @@
         <v>64</v>
       </c>
       <c r="B132" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -9805,10 +9800,10 @@
         <v>174</v>
       </c>
       <c r="B133" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -9816,10 +9811,10 @@
         <v>128</v>
       </c>
       <c r="B134" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -9827,10 +9822,10 @@
         <v>146</v>
       </c>
       <c r="B135" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -9838,10 +9833,10 @@
         <v>118</v>
       </c>
       <c r="B136" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -9849,10 +9844,10 @@
         <v>78</v>
       </c>
       <c r="B137" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -9860,10 +9855,10 @@
         <v>36</v>
       </c>
       <c r="B138" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -9871,10 +9866,10 @@
         <v>169</v>
       </c>
       <c r="B139" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -9882,10 +9877,10 @@
         <v>24</v>
       </c>
       <c r="B140" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -9893,10 +9888,10 @@
         <v>12</v>
       </c>
       <c r="B141" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -9904,10 +9899,10 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -9915,10 +9910,10 @@
         <v>97</v>
       </c>
       <c r="B143" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -9926,10 +9921,10 @@
         <v>236</v>
       </c>
       <c r="B144" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -9937,10 +9932,10 @@
         <v>56</v>
       </c>
       <c r="B145" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -9948,10 +9943,10 @@
         <v>211</v>
       </c>
       <c r="B146" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -9959,10 +9954,10 @@
         <v>73</v>
       </c>
       <c r="B147" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -9970,10 +9965,10 @@
         <v>7</v>
       </c>
       <c r="B148" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -9981,10 +9976,10 @@
         <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -9992,10 +9987,10 @@
         <v>197</v>
       </c>
       <c r="B150" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -10003,10 +9998,10 @@
         <v>111</v>
       </c>
       <c r="B151" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -10014,10 +10009,10 @@
         <v>109</v>
       </c>
       <c r="B152" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -10025,10 +10020,10 @@
         <v>76</v>
       </c>
       <c r="B153" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -10036,10 +10031,10 @@
         <v>95</v>
       </c>
       <c r="B154" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -10047,10 +10042,10 @@
         <v>33</v>
       </c>
       <c r="B155" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -10058,10 +10053,10 @@
         <v>224</v>
       </c>
       <c r="B156" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -10069,10 +10064,10 @@
         <v>32</v>
       </c>
       <c r="B157" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -10080,10 +10075,10 @@
         <v>75</v>
       </c>
       <c r="B158" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -10091,10 +10086,10 @@
         <v>4</v>
       </c>
       <c r="B159" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -10102,10 +10097,10 @@
         <v>185</v>
       </c>
       <c r="B160" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -10113,10 +10108,10 @@
         <v>74</v>
       </c>
       <c r="B161" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -10124,13 +10119,13 @@
         <v>204</v>
       </c>
       <c r="B162" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D162" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -10138,10 +10133,10 @@
         <v>16</v>
       </c>
       <c r="B163" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -10149,10 +10144,10 @@
         <v>202</v>
       </c>
       <c r="B164" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -10160,10 +10155,10 @@
         <v>136</v>
       </c>
       <c r="B165" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -10171,13 +10166,13 @@
         <v>153</v>
       </c>
       <c r="B166" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D166" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -10185,13 +10180,13 @@
         <v>26</v>
       </c>
       <c r="B167" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D167" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -10199,13 +10194,13 @@
         <v>239</v>
       </c>
       <c r="B168" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D168" s="15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -10213,13 +10208,13 @@
         <v>18</v>
       </c>
       <c r="B169" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D169" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -10227,13 +10222,13 @@
         <v>65</v>
       </c>
       <c r="B170" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D170" s="15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -10241,10 +10236,10 @@
         <v>3</v>
       </c>
       <c r="B171" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -10252,13 +10247,13 @@
         <v>68</v>
       </c>
       <c r="B172" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D172" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -10266,13 +10261,13 @@
         <v>86</v>
       </c>
       <c r="B173" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -10280,13 +10275,13 @@
         <v>77</v>
       </c>
       <c r="B174" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -10294,13 +10289,13 @@
         <v>217</v>
       </c>
       <c r="B175" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D175" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -10308,13 +10303,13 @@
         <v>230</v>
       </c>
       <c r="B176" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D176" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -10322,13 +10317,13 @@
         <v>23</v>
       </c>
       <c r="B177" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D177" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -10336,13 +10331,13 @@
         <v>84</v>
       </c>
       <c r="B178" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D178" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -10350,13 +10345,13 @@
         <v>28</v>
       </c>
       <c r="B179" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D179" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -10364,13 +10359,13 @@
         <v>101</v>
       </c>
       <c r="B180" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D180" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -10378,13 +10373,13 @@
         <v>66</v>
       </c>
       <c r="B181" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -10392,13 +10387,13 @@
         <v>82</v>
       </c>
       <c r="B182" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D182" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -10406,13 +10401,13 @@
         <v>166</v>
       </c>
       <c r="B183" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D183" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -10420,13 +10415,13 @@
         <v>232</v>
       </c>
       <c r="B184" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D184" s="15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -10434,13 +10429,13 @@
         <v>83</v>
       </c>
       <c r="B185" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D185" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -10448,13 +10443,13 @@
         <v>88</v>
       </c>
       <c r="B186" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D186" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -10462,10 +10457,10 @@
         <v>184</v>
       </c>
       <c r="B187" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -10473,13 +10468,13 @@
         <v>91</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D188" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -10487,13 +10482,13 @@
         <v>205</v>
       </c>
       <c r="B189" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D189" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -10501,16 +10496,16 @@
         <v>157</v>
       </c>
       <c r="B190" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D190" t="s">
+        <v>461</v>
+      </c>
+      <c r="E190" t="s">
         <v>462</v>
-      </c>
-      <c r="E190" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -10518,16 +10513,16 @@
         <v>134</v>
       </c>
       <c r="B191" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D191" t="s">
+        <v>461</v>
+      </c>
+      <c r="E191" t="s">
         <v>462</v>
-      </c>
-      <c r="E191" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -10535,16 +10530,16 @@
         <v>222</v>
       </c>
       <c r="B192" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D192" t="s">
+        <v>463</v>
+      </c>
+      <c r="E192" t="s">
         <v>464</v>
-      </c>
-      <c r="E192" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -10552,16 +10547,16 @@
         <v>158</v>
       </c>
       <c r="B193" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D193" t="s">
+        <v>463</v>
+      </c>
+      <c r="E193" t="s">
         <v>464</v>
-      </c>
-      <c r="E193" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -10569,16 +10564,16 @@
         <v>110</v>
       </c>
       <c r="B194" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D194" t="s">
+        <v>463</v>
+      </c>
+      <c r="E194" t="s">
         <v>464</v>
-      </c>
-      <c r="E194" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -10586,16 +10581,16 @@
         <v>235</v>
       </c>
       <c r="B195" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D195" t="s">
+        <v>463</v>
+      </c>
+      <c r="E195" t="s">
         <v>464</v>
-      </c>
-      <c r="E195" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -10603,16 +10598,16 @@
         <v>200</v>
       </c>
       <c r="B196" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D196" t="s">
+        <v>463</v>
+      </c>
+      <c r="E196" t="s">
         <v>464</v>
-      </c>
-      <c r="E196" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -10620,16 +10615,16 @@
         <v>89</v>
       </c>
       <c r="B197" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D197" t="s">
+        <v>463</v>
+      </c>
+      <c r="E197" t="s">
         <v>464</v>
-      </c>
-      <c r="E197" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -10637,10 +10632,10 @@
         <v>127</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -10648,10 +10643,10 @@
         <v>54</v>
       </c>
       <c r="B199" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -10659,10 +10654,10 @@
         <v>237</v>
       </c>
       <c r="B200" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -10670,10 +10665,10 @@
         <v>47</v>
       </c>
       <c r="B201" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -10681,10 +10676,10 @@
         <v>48</v>
       </c>
       <c r="B202" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -10692,10 +10687,10 @@
         <v>221</v>
       </c>
       <c r="B203" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -10703,10 +10698,10 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -10714,10 +10709,10 @@
         <v>117</v>
       </c>
       <c r="B205" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -10725,13 +10720,13 @@
         <v>138</v>
       </c>
       <c r="B206" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D206" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -10739,13 +10734,13 @@
         <v>81</v>
       </c>
       <c r="B207" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D207" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -10753,13 +10748,13 @@
         <v>160</v>
       </c>
       <c r="B208" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D208" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -10767,10 +10762,10 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -10778,10 +10773,10 @@
         <v>6</v>
       </c>
       <c r="B210" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -10789,10 +10784,10 @@
         <v>106</v>
       </c>
       <c r="B211" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -10800,10 +10795,10 @@
         <v>147</v>
       </c>
       <c r="B212" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -10811,10 +10806,10 @@
         <v>57</v>
       </c>
       <c r="B213" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -10822,10 +10817,10 @@
         <v>151</v>
       </c>
       <c r="B214" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -10833,10 +10828,10 @@
         <v>124</v>
       </c>
       <c r="B215" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -10844,10 +10839,10 @@
         <v>173</v>
       </c>
       <c r="B216" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -10855,10 +10850,10 @@
         <v>98</v>
       </c>
       <c r="B217" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -10866,10 +10861,10 @@
         <v>233</v>
       </c>
       <c r="B218" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -10877,10 +10872,10 @@
         <v>227</v>
       </c>
       <c r="B219" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -10888,10 +10883,10 @@
         <v>70</v>
       </c>
       <c r="B220" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -10899,10 +10894,10 @@
         <v>102</v>
       </c>
       <c r="B221" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -10910,10 +10905,10 @@
         <v>35</v>
       </c>
       <c r="B222" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -10921,10 +10916,10 @@
         <v>152</v>
       </c>
       <c r="B223" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -10932,10 +10927,10 @@
         <v>45</v>
       </c>
       <c r="B224" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -10943,10 +10938,10 @@
         <v>15</v>
       </c>
       <c r="B225" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -10954,10 +10949,10 @@
         <v>34</v>
       </c>
       <c r="B226" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -10965,10 +10960,10 @@
         <v>133</v>
       </c>
       <c r="B227" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -10976,10 +10971,10 @@
         <v>201</v>
       </c>
       <c r="B228" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -10987,10 +10982,10 @@
         <v>123</v>
       </c>
       <c r="B229" t="s">
+        <v>423</v>
+      </c>
+      <c r="C229" s="12" t="s">
         <v>424</v>
-      </c>
-      <c r="C229" s="12" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -10998,10 +10993,10 @@
         <v>5</v>
       </c>
       <c r="B230" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -11009,10 +11004,10 @@
         <v>210</v>
       </c>
       <c r="B231" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -11020,10 +11015,10 @@
         <v>183</v>
       </c>
       <c r="B232" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -11031,10 +11026,10 @@
         <v>220</v>
       </c>
       <c r="B233" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -11042,10 +11037,10 @@
         <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -11053,10 +11048,10 @@
         <v>228</v>
       </c>
       <c r="B235" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -11064,10 +11059,10 @@
         <v>198</v>
       </c>
       <c r="B236" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -11075,10 +11070,10 @@
         <v>112</v>
       </c>
       <c r="B237" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -11086,10 +11081,10 @@
         <v>52</v>
       </c>
       <c r="B238" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -11097,10 +11092,10 @@
         <v>130</v>
       </c>
       <c r="B239" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -11108,10 +11103,10 @@
         <v>177</v>
       </c>
       <c r="B240" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -11119,10 +11114,10 @@
         <v>93</v>
       </c>
       <c r="B241" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -11130,10 +11125,10 @@
         <v>187</v>
       </c>
       <c r="B242" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -11141,15 +11136,15 @@
         <v>13</v>
       </c>
       <c r="B243" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="409.6">
       <c r="B244" s="16" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C244" s="2"/>
     </row>

--- a/Candy Distribution Centers.xlsx
+++ b/Candy Distribution Centers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zziyue/Desktop/Research/Merger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B43744D-C8D0-6440-93EE-77B80FC4D9E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B52E90-CED5-754E-A063-39F72CAD1B90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="474">
   <si>
     <t>Firm</t>
   </si>
@@ -267,9 +267,6 @@
   </si>
   <si>
     <t>Caramello</t>
-  </si>
-  <si>
-    <t>Kit Kat</t>
   </si>
   <si>
     <t>Ice Breakers</t>
@@ -1469,6 +1466,9 @@
   </si>
   <si>
     <t>warehousing</t>
+  </si>
+  <si>
+    <t>KitKat</t>
   </si>
 </sst>
 </file>
@@ -2001,10 +2001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -2023,16 +2023,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>2</v>
@@ -2089,7 +2089,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" t="s">
@@ -2227,7 +2227,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I16" t="s">
         <v>44</v>
@@ -2285,7 +2285,7 @@
         <v>56</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" t="s">
@@ -2333,7 +2333,7 @@
         <v>68</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" t="s">
@@ -2348,7 +2348,7 @@
         <v>71</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" t="s">
@@ -2366,7 +2366,7 @@
         <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F27" t="s">
         <v>75</v>
@@ -2380,13 +2380,13 @@
         <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>28</v>
@@ -2397,13 +2397,13 @@
         <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>28</v>
@@ -2414,13 +2414,13 @@
         <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>28</v>
@@ -2431,10 +2431,10 @@
         <v>73</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>27</v>
@@ -2447,14 +2447,16 @@
       <c r="A32" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B32" t="s">
-        <v>81</v>
+      <c r="B32" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>470</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>28</v>
@@ -2464,14 +2466,14 @@
       <c r="A33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="B33" t="s">
+        <v>473</v>
+      </c>
+      <c r="C33" t="s">
+        <v>469</v>
+      </c>
       <c r="F33" s="2" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>28</v>
@@ -2481,16 +2483,14 @@
       <c r="A34" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>83</v>
+      <c r="B34" t="s">
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>470</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+        <v>469</v>
+      </c>
       <c r="F34" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>28</v>
@@ -2500,16 +2500,14 @@
       <c r="A35" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
         <v>470</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>28</v>
@@ -2520,15 +2518,15 @@
         <v>73</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>28</v>
@@ -2539,645 +2537,643 @@
         <v>73</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="85">
-      <c r="A38" t="s">
+    <row r="38" spans="1:7" ht="136">
+      <c r="A38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" t="s">
+        <v>469</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="85">
+      <c r="A39" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39" t="s">
         <v>89</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G39" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="68">
-      <c r="A39" t="s">
-        <v>92</v>
-      </c>
-      <c r="F39" t="s">
-        <v>93</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="68">
       <c r="A40" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" t="s">
         <v>92</v>
       </c>
-      <c r="F40" t="s">
-        <v>95</v>
-      </c>
       <c r="G40" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="68">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F41" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="68">
       <c r="A42" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F42" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="68">
       <c r="A43" t="s">
+        <v>96</v>
+      </c>
+      <c r="F43" t="s">
+        <v>97</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="68">
+      <c r="A44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" t="s">
         <v>100</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G44" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G43" s="1" t="s">
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s">
+    <row r="46" spans="1:7" ht="102">
+      <c r="A46" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="102">
-      <c r="A45" t="s">
+      <c r="F46" t="s">
         <v>104</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G46" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="68">
-      <c r="A46" t="s">
-        <v>107</v>
-      </c>
-      <c r="F46" t="s">
-        <v>108</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="68">
       <c r="A47" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" t="s">
         <v>107</v>
       </c>
-      <c r="F47" t="s">
-        <v>110</v>
-      </c>
       <c r="G47" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="68">
+      <c r="A48" t="s">
+        <v>106</v>
+      </c>
+      <c r="F48" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="102">
-      <c r="A48" t="s">
-        <v>111</v>
-      </c>
-      <c r="F48" t="s">
-        <v>112</v>
-      </c>
       <c r="G48" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="102">
       <c r="A49" t="s">
+        <v>110</v>
+      </c>
+      <c r="F49" t="s">
         <v>111</v>
       </c>
-      <c r="F49" t="s">
-        <v>114</v>
-      </c>
       <c r="G49" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="102">
       <c r="A50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F50" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="102">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="102">
       <c r="A52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F52" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="102">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F53" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="102">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F54" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="102">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F55" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="102">
       <c r="A56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="102">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F57" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="102">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F58" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="102">
       <c r="A59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F59" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="102">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F60" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="102">
       <c r="A61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F61" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="102">
       <c r="A62" t="s">
-        <v>111</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
+      </c>
+      <c r="F62" t="s">
+        <v>125</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="102">
       <c r="A63" t="s">
-        <v>111</v>
-      </c>
-      <c r="F63" t="s">
-        <v>128</v>
+        <v>110</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="102">
       <c r="A64" t="s">
-        <v>111</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>129</v>
+        <v>110</v>
+      </c>
+      <c r="F64" t="s">
+        <v>127</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="102">
       <c r="A65" t="s">
-        <v>111</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
+        <v>110</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="102">
       <c r="A66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="102">
       <c r="A67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="102">
       <c r="A68" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="102">
       <c r="A69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="102">
       <c r="A70" t="s">
+        <v>110</v>
+      </c>
+      <c r="F70" t="s">
+        <v>133</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="102">
+      <c r="A71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" t="s">
         <v>135</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G71" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G70" s="1" t="s">
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
-      <c r="A71" t="s">
+    <row r="73" spans="1:7" ht="85">
+      <c r="A73" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="85">
-      <c r="A72" t="s">
+      <c r="F73" t="s">
         <v>139</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G73" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G72" s="1" t="s">
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
-      <c r="A73" t="s">
+    <row r="75" spans="1:7" ht="68">
+      <c r="A75" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="68">
-      <c r="A74" t="s">
+      <c r="F75" t="s">
         <v>143</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G75" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" t="s">
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="187">
+      <c r="A77" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="187">
-      <c r="A76" t="s">
+      <c r="F77" t="s">
         <v>147</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G77" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G76" s="1" t="s">
+    </row>
+    <row r="78" spans="1:7" ht="102">
+      <c r="A78" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="102">
-      <c r="A77" t="s">
+      <c r="F78" t="s">
         <v>150</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G78" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G77" s="1" t="s">
+    </row>
+    <row r="79" spans="1:7" ht="187">
+      <c r="A79" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="187">
-      <c r="A78" t="s">
+      <c r="F79" t="s">
         <v>153</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G79" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="51">
-      <c r="A79" t="s">
-        <v>156</v>
-      </c>
-      <c r="F79" t="s">
-        <v>157</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="51">
       <c r="A80" t="s">
+        <v>155</v>
+      </c>
+      <c r="F80" t="s">
+        <v>156</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="51">
+      <c r="A81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G81" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G80" s="1" t="s">
+    </row>
+    <row r="82" spans="1:8" ht="68">
+      <c r="A82" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" ht="68">
-      <c r="A81" t="s">
+      <c r="F82" t="s">
         <v>162</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G82" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="85">
-      <c r="A82" t="s">
-        <v>165</v>
-      </c>
-      <c r="F82" t="s">
-        <v>166</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="85">
       <c r="A83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
       </c>
-      <c r="F83" t="s">
-        <v>17</v>
-      </c>
       <c r="G83" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="85">
       <c r="A84" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F84" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="85">
+      <c r="A85" t="s">
+        <v>164</v>
+      </c>
+      <c r="F85" t="s">
+        <v>167</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
         <v>168</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" t="s">
+    </row>
+    <row r="87" spans="1:8" ht="68">
+      <c r="A87" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" ht="68">
-      <c r="A86" t="s">
+      <c r="F87" t="s">
         <v>170</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G87" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G86" s="1" t="s">
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
-      <c r="A87" t="s">
+    <row r="89" spans="1:8" ht="102">
+      <c r="A89" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" ht="102">
-      <c r="A88" t="s">
+      <c r="F89" t="s">
         <v>174</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G89" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G88" s="1" t="s">
+    </row>
+    <row r="90" spans="1:8" ht="68">
+      <c r="A90" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" ht="68">
-      <c r="A89" t="s">
+      <c r="F90" t="s">
         <v>177</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G90" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G89" s="1" t="s">
+    </row>
+    <row r="91" spans="1:8" ht="51">
+      <c r="A91" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" ht="51">
-      <c r="A90" t="s">
+      <c r="F91" t="s">
+        <v>135</v>
+      </c>
+      <c r="G91" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="F90" t="s">
-        <v>136</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="85">
-      <c r="A91" t="s">
-        <v>182</v>
-      </c>
-      <c r="F91" t="s">
-        <v>17</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="85">
       <c r="A92" t="s">
+        <v>181</v>
+      </c>
+      <c r="F92" t="s">
+        <v>17</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="D92" s="20" t="s">
-        <v>468</v>
-      </c>
-      <c r="E92" s="20"/>
-      <c r="F92" t="s">
-        <v>184</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="85">
       <c r="A93" t="s">
+        <v>181</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="E93" s="20"/>
+      <c r="F93" t="s">
+        <v>183</v>
+      </c>
+      <c r="G93" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F93" t="s">
+    </row>
+    <row r="94" spans="1:8" ht="85">
+      <c r="A94" t="s">
+        <v>181</v>
+      </c>
+      <c r="F94" t="s">
+        <v>184</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
         <v>185</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="136">
-      <c r="A95" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" t="s">
-        <v>19</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H95" s="2">
-        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="136">
       <c r="A96" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s">
+        <v>19</v>
+      </c>
+      <c r="G96" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="C96" t="s">
-        <v>471</v>
-      </c>
-      <c r="D96" s="20" t="s">
-        <v>468</v>
-      </c>
-      <c r="E96" s="20"/>
-      <c r="F96" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="H96" s="2">
         <v>6</v>
@@ -3185,19 +3181,20 @@
     </row>
     <row r="97" spans="1:8" ht="136">
       <c r="A97" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C97" t="s">
+        <v>470</v>
+      </c>
+      <c r="D97" s="20" t="s">
+        <v>467</v>
+      </c>
+      <c r="E97" s="20"/>
+      <c r="F97" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s">
-        <v>471</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="H97" s="2">
         <v>6</v>
@@ -3205,19 +3202,19 @@
     </row>
     <row r="98" spans="1:8" ht="136">
       <c r="A98" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B98" s="2"/>
-      <c r="C98" s="2" t="s">
+      <c r="C98" t="s">
         <v>470</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H98" s="2">
         <v>6</v>
@@ -3225,33 +3222,53 @@
     </row>
     <row r="99" spans="1:8" ht="136">
       <c r="A99" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B99" s="2"/>
-      <c r="C99" t="s">
-        <v>471</v>
+      <c r="C99" s="2" t="s">
+        <v>469</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H99" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="68">
-      <c r="A100" t="s">
+    <row r="100" spans="1:8" ht="136">
+      <c r="A100" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" t="s">
+        <v>470</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H100" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="68">
+      <c r="A101" t="s">
+        <v>191</v>
+      </c>
+      <c r="F101" t="s">
         <v>192</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G101" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3278,72 +3295,73 @@
     <hyperlink ref="G25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="G26" r:id="rId21" location="US_presence" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="G27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G28" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="G29" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G30" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="G31" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G32" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="G33" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G34" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="G35" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G36" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="G37" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G38" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="G39" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G40" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="G41" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G42" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="G43" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G45" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="G46" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G47" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="G48" r:id="rId42" location="Factories" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G49" r:id="rId43" location="Factories" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="G50" r:id="rId44" location="Factories" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G51" r:id="rId45" location="Factories" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="G52" r:id="rId46" location="Factories" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G53" r:id="rId47" location="Factories" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="G54" r:id="rId48" location="Factories" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G55" r:id="rId49" location="Factories" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="G56" r:id="rId50" location="Factories" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="G57" r:id="rId51" location="Factories" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="G58" r:id="rId52" location="Factories" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="G59" r:id="rId53" location="Factories" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="G60" r:id="rId54" location="Factories" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="G61" r:id="rId55" location="Factories" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="G62" r:id="rId56" location="Factories" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="G63" r:id="rId57" location="Factories" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="G64" r:id="rId58" location="Factories" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="G65" r:id="rId59" location="Factories" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="G66" r:id="rId60" location="Factories" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="G67" r:id="rId61" location="Factories" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="G68" r:id="rId62" location="Factories" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="G69" r:id="rId63" location="Factories" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="G70" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="G72" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="G74" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="G76" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="G77" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="G78" r:id="rId69" location="erlanger" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="G79" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="G80" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="G81" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="G82" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="G83" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="G84" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="G86" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="G88" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="G89" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="G90" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="G91" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="G92" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="G93" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="G95" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="G96" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="G97" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="G98" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="G99" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="G100" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="G29" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G30" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G31" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G33" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G34" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="G35" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G36" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G37" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G38" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="G39" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="G40" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G41" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G42" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G43" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G44" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G46" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G47" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G48" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G49" r:id="rId41" location="Factories" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G50" r:id="rId42" location="Factories" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="G51" r:id="rId43" location="Factories" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G52" r:id="rId44" location="Factories" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G53" r:id="rId45" location="Factories" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G54" r:id="rId46" location="Factories" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G55" r:id="rId47" location="Factories" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G56" r:id="rId48" location="Factories" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="G57" r:id="rId49" location="Factories" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G58" r:id="rId50" location="Factories" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="G59" r:id="rId51" location="Factories" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G60" r:id="rId52" location="Factories" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="G61" r:id="rId53" location="Factories" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G62" r:id="rId54" location="Factories" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G63" r:id="rId55" location="Factories" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G64" r:id="rId56" location="Factories" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="G65" r:id="rId57" location="Factories" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G66" r:id="rId58" location="Factories" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="G67" r:id="rId59" location="Factories" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="G68" r:id="rId60" location="Factories" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="G69" r:id="rId61" location="Factories" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="G70" r:id="rId62" location="Factories" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="G71" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="G73" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="G75" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G77" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="G78" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G79" r:id="rId68" location="erlanger" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="G80" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="G81" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="G82" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="G83" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="G84" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G85" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="G87" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="G89" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="G90" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="G91" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="G92" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="G93" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="G94" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="G96" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="G97" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="G98" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="G99" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="G100" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="G101" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="G28" r:id="rId88" xr:uid="{94614DFF-AEDF-0846-ACB8-5D12F2608783}"/>
+    <hyperlink ref="G32" r:id="rId89" xr:uid="{BEE8EA30-EFA9-884C-A1F3-DBC02CEFCCD8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3354,8 +3372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G243"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -3367,7 +3385,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1">
       <c r="B1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C1" s="4">
         <v>2006</v>
@@ -3388,7 +3406,7 @@
         <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -3408,7 +3426,7 @@
         <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -3428,7 +3446,7 @@
         <v>182</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -3448,7 +3466,7 @@
         <v>238</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -3468,7 +3486,7 @@
         <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -3488,7 +3506,7 @@
         <v>218</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -3508,7 +3526,7 @@
         <v>219</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -3528,7 +3546,7 @@
         <v>194</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
@@ -3548,7 +3566,7 @@
         <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -3568,7 +3586,7 @@
         <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
@@ -3588,7 +3606,7 @@
         <v>150</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
@@ -3608,7 +3626,7 @@
         <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -3628,7 +3646,7 @@
         <v>178</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -3648,7 +3666,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -3668,7 +3686,7 @@
         <v>103</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
@@ -3688,7 +3706,7 @@
         <v>229</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
@@ -3708,7 +3726,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>
@@ -3728,7 +3746,7 @@
         <v>208</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C19" t="s">
         <v>41</v>
@@ -3748,7 +3766,7 @@
         <v>192</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C20" t="s">
         <v>45</v>
@@ -3768,7 +3786,7 @@
         <v>163</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C21" t="s">
         <v>45</v>
@@ -3788,7 +3806,7 @@
         <v>122</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C22" t="s">
         <v>45</v>
@@ -3808,7 +3826,7 @@
         <v>135</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C23" t="s">
         <v>45</v>
@@ -3828,7 +3846,7 @@
         <v>61</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C24" t="s">
         <v>47</v>
@@ -3848,7 +3866,7 @@
         <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C25" t="s">
         <v>47</v>
@@ -3868,7 +3886,7 @@
         <v>189</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C26" t="s">
         <v>47</v>
@@ -3888,7 +3906,7 @@
         <v>209</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C27" t="s">
         <v>47</v>
@@ -3908,7 +3926,7 @@
         <v>186</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C28" t="s">
         <v>47</v>
@@ -3928,7 +3946,7 @@
         <v>62</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C29" t="s">
         <v>47</v>
@@ -3948,7 +3966,7 @@
         <v>132</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C30" t="s">
         <v>47</v>
@@ -3968,7 +3986,7 @@
         <v>241</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C31" t="s">
         <v>47</v>
@@ -3988,7 +4006,7 @@
         <v>142</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C32" t="s">
         <v>47</v>
@@ -4008,7 +4026,7 @@
         <v>67</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C33" t="s">
         <v>47</v>
@@ -4028,7 +4046,7 @@
         <v>216</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C34" t="s">
         <v>50</v>
@@ -4048,7 +4066,7 @@
         <v>181</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C35" t="s">
         <v>53</v>
@@ -4068,7 +4086,7 @@
         <v>196</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C36" t="s">
         <v>53</v>
@@ -4088,7 +4106,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C37" t="s">
         <v>56</v>
@@ -4108,7 +4126,7 @@
         <v>149</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C38" t="s">
         <v>56</v>
@@ -4128,7 +4146,7 @@
         <v>63</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C39" t="s">
         <v>59</v>
@@ -4148,7 +4166,7 @@
         <v>188</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C40" t="s">
         <v>59</v>
@@ -4168,7 +4186,7 @@
         <v>140</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C41" t="s">
         <v>62</v>
@@ -4188,7 +4206,7 @@
         <v>231</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C42" t="s">
         <v>65</v>
@@ -4208,7 +4226,7 @@
         <v>131</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
@@ -4228,7 +4246,7 @@
         <v>51</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C44" t="s">
         <v>71</v>
@@ -4248,7 +4266,7 @@
         <v>171</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C45" t="s">
         <v>71</v>
@@ -4268,7 +4286,7 @@
         <v>108</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C46" t="s">
         <v>73</v>
@@ -4288,7 +4306,7 @@
         <v>225</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C47" t="s">
         <v>73</v>
@@ -4308,7 +4326,7 @@
         <v>71</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C48" t="s">
         <v>73</v>
@@ -4328,7 +4346,7 @@
         <v>69</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C49" t="s">
         <v>73</v>
@@ -4348,7 +4366,7 @@
         <v>37</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C50" t="s">
         <v>73</v>
@@ -4368,7 +4386,7 @@
         <v>120</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C51" t="s">
         <v>73</v>
@@ -4388,7 +4406,7 @@
         <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C52" t="s">
         <v>73</v>
@@ -4408,7 +4426,7 @@
         <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C53" t="s">
         <v>73</v>
@@ -4428,7 +4446,7 @@
         <v>139</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C54" t="s">
         <v>73</v>
@@ -4448,7 +4466,7 @@
         <v>22</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C55" t="s">
         <v>73</v>
@@ -4468,7 +4486,7 @@
         <v>172</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C56" t="s">
         <v>73</v>
@@ -4488,7 +4506,7 @@
         <v>27</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C57" t="s">
         <v>73</v>
@@ -4508,7 +4526,7 @@
         <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C58" t="s">
         <v>73</v>
@@ -4528,7 +4546,7 @@
         <v>30</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C59" t="s">
         <v>73</v>
@@ -4548,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C60" t="s">
         <v>73</v>
@@ -4568,7 +4586,7 @@
         <v>191</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C61" t="s">
         <v>73</v>
@@ -4588,7 +4606,7 @@
         <v>179</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C62" t="s">
         <v>73</v>
@@ -4608,7 +4626,7 @@
         <v>43</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C63" t="s">
         <v>73</v>
@@ -4628,7 +4646,7 @@
         <v>119</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C64" t="s">
         <v>73</v>
@@ -4648,7 +4666,7 @@
         <v>14</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C65" t="s">
         <v>73</v>
@@ -4668,7 +4686,7 @@
         <v>206</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -4688,7 +4706,7 @@
         <v>9</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C67" t="s">
         <v>73</v>
@@ -4708,7 +4726,7 @@
         <v>141</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C68" t="s">
         <v>73</v>
@@ -4728,7 +4746,7 @@
         <v>50</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C69" t="s">
         <v>73</v>
@@ -4748,7 +4766,7 @@
         <v>214</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C70" t="s">
         <v>73</v>
@@ -4768,7 +4786,7 @@
         <v>41</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C71" t="s">
         <v>73</v>
@@ -4788,7 +4806,7 @@
         <v>144</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C72" t="s">
         <v>73</v>
@@ -4808,7 +4826,7 @@
         <v>40</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C73" t="s">
         <v>73</v>
@@ -4828,7 +4846,7 @@
         <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C74" t="s">
         <v>73</v>
@@ -4848,7 +4866,7 @@
         <v>154</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C75" t="s">
         <v>73</v>
@@ -4868,7 +4886,7 @@
         <v>143</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C76" t="s">
         <v>73</v>
@@ -4888,7 +4906,7 @@
         <v>167</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C77" t="s">
         <v>73</v>
@@ -4908,7 +4926,7 @@
         <v>113</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C78" t="s">
         <v>73</v>
@@ -4928,7 +4946,7 @@
         <v>21</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C79" t="s">
         <v>73</v>
@@ -4948,7 +4966,7 @@
         <v>60</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C80" t="s">
         <v>73</v>
@@ -4968,7 +4986,7 @@
         <v>165</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C81" t="s">
         <v>73</v>
@@ -4988,7 +5006,7 @@
         <v>213</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C82" t="s">
         <v>73</v>
@@ -5008,7 +5026,7 @@
         <v>156</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C83" t="s">
         <v>73</v>
@@ -5028,7 +5046,7 @@
         <v>199</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C84" t="s">
         <v>73</v>
@@ -5048,7 +5066,7 @@
         <v>193</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C85" t="s">
         <v>73</v>
@@ -5068,7 +5086,7 @@
         <v>190</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C86" t="s">
         <v>73</v>
@@ -5088,7 +5106,7 @@
         <v>162</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C87" t="s">
         <v>73</v>
@@ -5108,7 +5126,7 @@
         <v>168</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C88" t="s">
         <v>73</v>
@@ -5128,7 +5146,7 @@
         <v>129</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C89" t="s">
         <v>73</v>
@@ -5148,7 +5166,7 @@
         <v>85</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C90" t="s">
         <v>73</v>
@@ -5168,7 +5186,7 @@
         <v>53</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C91" t="s">
         <v>73</v>
@@ -5188,7 +5206,7 @@
         <v>121</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C92" t="s">
         <v>73</v>
@@ -5208,7 +5226,7 @@
         <v>39</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C93" t="s">
         <v>73</v>
@@ -5228,7 +5246,7 @@
         <v>19</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C94" t="s">
         <v>73</v>
@@ -5248,7 +5266,7 @@
         <v>31</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C95" t="s">
         <v>73</v>
@@ -5268,7 +5286,7 @@
         <v>104</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C96" t="s">
         <v>73</v>
@@ -5288,7 +5306,7 @@
         <v>207</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C97" t="s">
         <v>73</v>
@@ -5308,7 +5326,7 @@
         <v>25</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C98" t="s">
         <v>73</v>
@@ -5328,7 +5346,7 @@
         <v>175</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C99" t="s">
         <v>73</v>
@@ -5348,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C100" t="s">
         <v>73</v>
@@ -5368,7 +5386,7 @@
         <v>96</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C101" t="s">
         <v>73</v>
@@ -5388,7 +5406,7 @@
         <v>170</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C102" t="s">
         <v>73</v>
@@ -5408,7 +5426,7 @@
         <v>46</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C103" t="s">
         <v>73</v>
@@ -5428,7 +5446,7 @@
         <v>79</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C104" t="s">
         <v>73</v>
@@ -5448,7 +5466,7 @@
         <v>114</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C105" t="s">
         <v>73</v>
@@ -5468,19 +5486,19 @@
         <v>223</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C106" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D106" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E106" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F106" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -5488,19 +5506,19 @@
         <v>44</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C107" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D107" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E107" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F107" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -5508,19 +5526,19 @@
         <v>164</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C108" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D108" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E108" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F108" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -5528,19 +5546,19 @@
         <v>100</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C109" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D109" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E109" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F109" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -5548,19 +5566,19 @@
         <v>55</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C110" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D110" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E110" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F110" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -5568,19 +5586,19 @@
         <v>92</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C111" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D111" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E111" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F111" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -5588,19 +5606,19 @@
         <v>155</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C112" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D112" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E112" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F112" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -5608,19 +5626,19 @@
         <v>226</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C113" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D113" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E113" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F113" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -5628,19 +5646,19 @@
         <v>159</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C114" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D114" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E114" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F114" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -5648,19 +5666,19 @@
         <v>29</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C115" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D115" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E115" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F115" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -5668,19 +5686,19 @@
         <v>72</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C116" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D116" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E116" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F116" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -5688,19 +5706,19 @@
         <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C117" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D117" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E117" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F117" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -5708,19 +5726,19 @@
         <v>116</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C118" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D118" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E118" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F118" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -5728,19 +5746,19 @@
         <v>125</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C119" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D119" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E119" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F119" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -5748,19 +5766,19 @@
         <v>195</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C120" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D120" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E120" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F120" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -5768,19 +5786,19 @@
         <v>90</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C121" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D121" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E121" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F121" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -5788,19 +5806,19 @@
         <v>240</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C122" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D122" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E122" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F122" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -5808,19 +5826,19 @@
         <v>180</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C123" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D123" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E123" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F123" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -5828,19 +5846,19 @@
         <v>38</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C124" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D124" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E124" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F124" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -5848,19 +5866,19 @@
         <v>215</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C125" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D125" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E125" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F125" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -5868,19 +5886,19 @@
         <v>161</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C126" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D126" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E126" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F126" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -5888,19 +5906,19 @@
         <v>59</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C127" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D127" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E127" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F127" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -5908,19 +5926,19 @@
         <v>203</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C128" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D128" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E128" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F128" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -5928,19 +5946,19 @@
         <v>20</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C129" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D129" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E129" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F129" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -5948,19 +5966,19 @@
         <v>148</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C130" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D130" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E130" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F130" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -5968,19 +5986,19 @@
         <v>176</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C131" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D131" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E131" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F131" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -5988,19 +6006,19 @@
         <v>64</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C132" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D132" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E132" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F132" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -6008,19 +6026,19 @@
         <v>174</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C133" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D133" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E133" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F133" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -6028,19 +6046,19 @@
         <v>128</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C134" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D134" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E134" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F134" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -6048,19 +6066,19 @@
         <v>146</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C135" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D135" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E135" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F135" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -6068,19 +6086,19 @@
         <v>118</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C136" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D136" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E136" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F136" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6088,19 +6106,19 @@
         <v>78</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C137" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D137" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E137" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F137" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -6108,19 +6126,19 @@
         <v>36</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C138" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D138" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E138" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F138" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -6128,19 +6146,19 @@
         <v>169</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C139" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D139" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E139" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F139" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -6148,19 +6166,19 @@
         <v>24</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C140" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D140" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E140" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F140" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -6168,19 +6186,19 @@
         <v>12</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C141" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D141" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E141" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F141" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -6188,19 +6206,19 @@
         <v>145</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C142" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D142" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E142" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F142" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -6208,19 +6226,19 @@
         <v>97</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C143" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D143" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E143" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F143" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -6228,19 +6246,19 @@
         <v>236</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C144" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D144" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E144" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F144" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -6248,19 +6266,19 @@
         <v>56</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C145" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D145" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E145" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F145" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -6268,19 +6286,19 @@
         <v>211</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C146" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D146" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E146" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F146" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -6288,19 +6306,19 @@
         <v>73</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C147" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D147" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E147" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F147" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -6308,19 +6326,19 @@
         <v>7</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C148" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D148" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E148" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F148" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -6328,19 +6346,19 @@
         <v>11</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C149" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D149" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E149" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F149" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -6348,19 +6366,19 @@
         <v>197</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C150" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D150" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E150" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F150" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -6368,19 +6386,19 @@
         <v>111</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C151" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D151" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E151" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F151" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -6388,19 +6406,19 @@
         <v>109</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C152" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D152" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E152" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F152" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -6408,19 +6426,19 @@
         <v>76</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C153" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D153" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E153" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F153" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -6428,19 +6446,19 @@
         <v>95</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C154" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D154" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E154" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F154" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -6448,19 +6466,19 @@
         <v>33</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C155" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D155" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E155" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F155" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -6468,19 +6486,19 @@
         <v>224</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C156" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D156" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E156" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F156" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -6488,19 +6506,19 @@
         <v>32</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C157" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D157" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E157" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F157" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -6508,19 +6526,19 @@
         <v>75</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C158" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D158" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E158" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F158" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -6528,19 +6546,19 @@
         <v>4</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C159" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D159" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E159" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F159" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -6548,19 +6566,19 @@
         <v>185</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C160" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D160" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E160" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F160" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -6568,19 +6586,19 @@
         <v>74</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -6588,19 +6606,19 @@
         <v>204</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C162" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D162" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E162" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F162" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -6608,19 +6626,19 @@
         <v>16</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C163" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D163" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E163" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F163" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -6628,19 +6646,19 @@
         <v>202</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C164" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D164" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E164" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F164" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -6648,19 +6666,19 @@
         <v>136</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C165" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D165" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E165" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F165" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -6668,19 +6686,19 @@
         <v>153</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C166" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D166" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E166" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F166" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -6688,19 +6706,19 @@
         <v>26</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C167" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D167" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E167" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F167" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -6708,19 +6726,19 @@
         <v>239</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C168" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D168" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E168" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F168" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -6728,19 +6746,19 @@
         <v>18</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C169" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D169" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E169" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F169" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -6748,19 +6766,19 @@
         <v>65</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C170" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D170" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E170" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F170" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -6768,19 +6786,19 @@
         <v>3</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C171" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D171" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E171" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F171" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -6788,19 +6806,19 @@
         <v>68</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C172" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D172" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E172" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F172" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -6808,13 +6826,13 @@
         <v>86</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C173" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D173" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E173" t="s">
         <v>43</v>
@@ -6828,10 +6846,10 @@
         <v>77</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C174" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D174" t="s">
         <v>43</v>
@@ -6848,19 +6866,19 @@
         <v>217</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C175" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D175" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E175" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F175" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -6868,19 +6886,19 @@
         <v>230</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C176" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D176" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E176" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F176" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -6888,19 +6906,19 @@
         <v>23</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C177" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D177" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E177" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F177" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -6908,19 +6926,19 @@
         <v>84</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C178" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D178" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E178" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F178" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -6928,19 +6946,19 @@
         <v>28</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C179" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D179" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E179" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F179" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -6948,19 +6966,19 @@
         <v>101</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C180" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D180" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E180" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F180" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -6968,19 +6986,19 @@
         <v>66</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C181" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D181" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E181" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F181" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -6988,19 +7006,19 @@
         <v>82</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C182" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D182" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E182" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F182" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -7008,19 +7026,19 @@
         <v>166</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C183" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D183" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E183" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F183" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -7028,19 +7046,19 @@
         <v>232</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C184" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D184" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E184" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F184" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -7048,19 +7066,19 @@
         <v>83</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C185" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D185" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E185" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F185" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -7068,19 +7086,19 @@
         <v>88</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C186" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D186" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E186" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F186" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -7088,19 +7106,19 @@
         <v>184</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C187" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D187" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E187" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F187" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -7108,19 +7126,19 @@
         <v>91</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C188" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D188" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E188" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F188" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -7128,19 +7146,19 @@
         <v>205</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C189" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D189" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E189" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F189" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -7148,19 +7166,19 @@
         <v>157</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C190" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D190" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E190" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F190" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -7168,19 +7186,19 @@
         <v>134</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C191" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D191" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E191" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F191" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -7188,19 +7206,19 @@
         <v>222</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C192" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D192" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E192" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F192" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -7208,19 +7226,19 @@
         <v>158</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C193" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D193" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E193" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F193" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -7228,19 +7246,19 @@
         <v>110</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C194" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D194" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E194" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F194" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -7248,19 +7266,19 @@
         <v>235</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C195" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D195" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E195" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F195" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -7268,19 +7286,19 @@
         <v>200</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C196" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D196" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E196" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F196" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -7288,19 +7306,19 @@
         <v>89</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C197" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D197" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E197" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F197" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -7308,19 +7326,19 @@
         <v>127</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C198" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D198" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E198" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F198" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -7328,19 +7346,19 @@
         <v>54</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C199" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D199" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E199" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F199" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -7348,19 +7366,19 @@
         <v>237</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -7368,19 +7386,19 @@
         <v>47</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C201" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D201" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E201" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F201" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -7388,19 +7406,19 @@
         <v>48</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C202" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D202" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E202" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F202" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -7408,19 +7426,19 @@
         <v>221</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C203" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D203" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E203" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F203" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -7428,19 +7446,19 @@
         <v>10</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C204" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D204" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E204" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F204" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -7448,19 +7466,19 @@
         <v>117</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C205" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D205" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E205" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F205" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -7468,19 +7486,19 @@
         <v>138</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C206" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D206" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E206" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F206" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -7488,19 +7506,19 @@
         <v>81</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C207" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D207" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E207" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F207" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -7508,19 +7526,19 @@
         <v>160</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C208" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D208" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E208" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F208" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -7528,19 +7546,19 @@
         <v>212</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C209" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D209" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E209" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F209" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -7548,19 +7566,19 @@
         <v>6</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C210" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D210" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E210" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F210" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -7568,19 +7586,19 @@
         <v>106</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C211" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D211" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E211" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F211" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -7588,19 +7606,19 @@
         <v>147</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C212" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D212" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E212" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F212" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -7608,19 +7626,19 @@
         <v>57</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C213" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D213" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E213" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F213" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -7628,19 +7646,19 @@
         <v>151</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C214" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D214" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E214" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F214" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -7648,19 +7666,19 @@
         <v>124</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C215" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D215" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E215" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F215" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -7668,19 +7686,19 @@
         <v>173</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C216" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D216" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E216" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F216" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -7688,19 +7706,19 @@
         <v>98</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C217" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D217" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E217" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F217" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -7708,19 +7726,19 @@
         <v>233</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C218" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D218" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E218" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F218" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -7728,19 +7746,19 @@
         <v>227</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C219" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D219" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E219" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F219" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -7748,19 +7766,19 @@
         <v>70</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C220" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D220" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E220" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F220" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -7768,19 +7786,19 @@
         <v>102</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C221" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D221" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E221" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F221" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -7788,19 +7806,19 @@
         <v>35</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C222" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D222" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E222" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F222" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -7808,19 +7826,19 @@
         <v>152</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C223" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D223" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E223" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F223" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -7828,19 +7846,19 @@
         <v>45</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C224" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D224" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E224" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F224" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -7848,19 +7866,19 @@
         <v>15</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C225" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D225" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E225" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F225" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -7868,19 +7886,19 @@
         <v>34</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C226" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D226" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E226" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F226" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -7888,19 +7906,19 @@
         <v>133</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C227" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D227" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E227" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F227" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -7908,19 +7926,19 @@
         <v>201</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C228" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D228" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E228" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F228" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -7928,19 +7946,19 @@
         <v>123</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C229" t="s">
         <v>423</v>
       </c>
-      <c r="C229" t="s">
-        <v>424</v>
-      </c>
       <c r="D229" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E229" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F229" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -7948,19 +7966,19 @@
         <v>5</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C230" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D230" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E230" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F230" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -7968,19 +7986,19 @@
         <v>210</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C231" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D231" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E231" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F231" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -7988,19 +8006,19 @@
         <v>183</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C232" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D232" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E232" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F232" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -8008,19 +8026,19 @@
         <v>220</v>
       </c>
       <c r="B233" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C233" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D233" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E233" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F233" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -8028,19 +8046,19 @@
         <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C234" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D234" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E234" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F234" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -8048,19 +8066,19 @@
         <v>228</v>
       </c>
       <c r="B235" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C235" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D235" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E235" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F235" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -8068,19 +8086,19 @@
         <v>198</v>
       </c>
       <c r="B236" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C236" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D236" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E236" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F236" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -8088,19 +8106,19 @@
         <v>112</v>
       </c>
       <c r="B237" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C237" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D237" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E237" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F237" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -8108,19 +8126,19 @@
         <v>52</v>
       </c>
       <c r="B238" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C238" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D238" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E238" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F238" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -8128,19 +8146,19 @@
         <v>130</v>
       </c>
       <c r="B239" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G239" s="2"/>
     </row>
@@ -8149,19 +8167,19 @@
         <v>177</v>
       </c>
       <c r="B240" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G240" s="2"/>
     </row>
@@ -8170,19 +8188,19 @@
         <v>93</v>
       </c>
       <c r="B241" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G241" s="2"/>
     </row>
@@ -8191,19 +8209,19 @@
         <v>187</v>
       </c>
       <c r="B242" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G242" s="2"/>
     </row>
@@ -8212,19 +8230,19 @@
         <v>13</v>
       </c>
       <c r="B243" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C243" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D243" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E243" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F243" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -8253,19 +8271,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="58" customHeight="1">
       <c r="B1" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -8273,14 +8291,14 @@
         <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8288,7 +8306,7 @@
         <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -8299,7 +8317,7 @@
         <v>182</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
@@ -8310,7 +8328,7 @@
         <v>238</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -8321,7 +8339,7 @@
         <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -8332,13 +8350,13 @@
         <v>218</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8346,7 +8364,7 @@
         <v>219</v>
       </c>
       <c r="B8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
@@ -8357,7 +8375,7 @@
         <v>194</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
@@ -8368,13 +8386,13 @@
         <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8382,13 +8400,13 @@
         <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -8396,13 +8414,13 @@
         <v>225</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8410,13 +8428,13 @@
         <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -8424,13 +8442,13 @@
         <v>69</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -8438,13 +8456,13 @@
         <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -8452,7 +8470,7 @@
         <v>126</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>26</v>
@@ -8463,7 +8481,7 @@
         <v>150</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>26</v>
@@ -8475,7 +8493,7 @@
         <v>80</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>26</v>
@@ -8486,7 +8504,7 @@
         <v>178</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>26</v>
@@ -8497,7 +8515,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>30</v>
@@ -8508,7 +8526,7 @@
         <v>103</v>
       </c>
       <c r="B21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>30</v>
@@ -8519,7 +8537,7 @@
         <v>229</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C22" t="s">
         <v>33</v>
@@ -8530,7 +8548,7 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>38</v>
@@ -8541,7 +8559,7 @@
         <v>208</v>
       </c>
       <c r="B24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>41</v>
@@ -8552,7 +8570,7 @@
         <v>192</v>
       </c>
       <c r="B25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>45</v>
@@ -8563,7 +8581,7 @@
         <v>163</v>
       </c>
       <c r="B26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>45</v>
@@ -8574,7 +8592,7 @@
         <v>122</v>
       </c>
       <c r="B27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>45</v>
@@ -8585,7 +8603,7 @@
         <v>135</v>
       </c>
       <c r="B28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>45</v>
@@ -8596,13 +8614,13 @@
         <v>61</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -8610,13 +8628,13 @@
         <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -8624,13 +8642,13 @@
         <v>189</v>
       </c>
       <c r="B31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -8638,13 +8656,13 @@
         <v>209</v>
       </c>
       <c r="B32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -8652,13 +8670,13 @@
         <v>186</v>
       </c>
       <c r="B33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -8666,13 +8684,13 @@
         <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -8680,13 +8698,13 @@
         <v>132</v>
       </c>
       <c r="B35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -8694,13 +8712,13 @@
         <v>241</v>
       </c>
       <c r="B36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -8708,13 +8726,13 @@
         <v>142</v>
       </c>
       <c r="B37" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -8722,13 +8740,13 @@
         <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -8736,7 +8754,7 @@
         <v>216</v>
       </c>
       <c r="B39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>50</v>
@@ -8747,13 +8765,13 @@
         <v>181</v>
       </c>
       <c r="B40" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -8761,13 +8779,13 @@
         <v>196</v>
       </c>
       <c r="B41" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -8775,7 +8793,7 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>56</v>
@@ -8786,7 +8804,7 @@
         <v>149</v>
       </c>
       <c r="B43" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>56</v>
@@ -8797,7 +8815,7 @@
         <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>59</v>
@@ -8808,7 +8826,7 @@
         <v>188</v>
       </c>
       <c r="B45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>59</v>
@@ -8819,7 +8837,7 @@
         <v>140</v>
       </c>
       <c r="B46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>62</v>
@@ -8830,7 +8848,7 @@
         <v>231</v>
       </c>
       <c r="B47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>65</v>
@@ -8841,7 +8859,7 @@
         <v>131</v>
       </c>
       <c r="B48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>68</v>
@@ -8852,7 +8870,7 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>71</v>
@@ -8863,7 +8881,7 @@
         <v>171</v>
       </c>
       <c r="B50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>71</v>
@@ -8874,7 +8892,7 @@
         <v>120</v>
       </c>
       <c r="B51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>73</v>
@@ -8885,7 +8903,7 @@
         <v>105</v>
       </c>
       <c r="B52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>73</v>
@@ -8896,7 +8914,7 @@
         <v>99</v>
       </c>
       <c r="B53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>73</v>
@@ -8907,7 +8925,7 @@
         <v>139</v>
       </c>
       <c r="B54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>73</v>
@@ -8918,7 +8936,7 @@
         <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>73</v>
@@ -8929,7 +8947,7 @@
         <v>172</v>
       </c>
       <c r="B56" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>73</v>
@@ -8940,7 +8958,7 @@
         <v>27</v>
       </c>
       <c r="B57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>73</v>
@@ -8951,7 +8969,7 @@
         <v>107</v>
       </c>
       <c r="B58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>73</v>
@@ -8962,7 +8980,7 @@
         <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>73</v>
@@ -8973,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>73</v>
@@ -8984,7 +9002,7 @@
         <v>191</v>
       </c>
       <c r="B61" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>73</v>
@@ -8995,7 +9013,7 @@
         <v>179</v>
       </c>
       <c r="B62" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>73</v>
@@ -9006,7 +9024,7 @@
         <v>43</v>
       </c>
       <c r="B63" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>73</v>
@@ -9017,7 +9035,7 @@
         <v>119</v>
       </c>
       <c r="B64" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>73</v>
@@ -9028,7 +9046,7 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>73</v>
@@ -9039,7 +9057,7 @@
         <v>206</v>
       </c>
       <c r="B66" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>73</v>
@@ -9050,7 +9068,7 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>73</v>
@@ -9061,7 +9079,7 @@
         <v>141</v>
       </c>
       <c r="B68" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>73</v>
@@ -9072,7 +9090,7 @@
         <v>50</v>
       </c>
       <c r="B69" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>73</v>
@@ -9083,7 +9101,7 @@
         <v>214</v>
       </c>
       <c r="B70" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>73</v>
@@ -9094,7 +9112,7 @@
         <v>41</v>
       </c>
       <c r="B71" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>73</v>
@@ -9105,7 +9123,7 @@
         <v>144</v>
       </c>
       <c r="B72" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>73</v>
@@ -9116,7 +9134,7 @@
         <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>73</v>
@@ -9127,7 +9145,7 @@
         <v>94</v>
       </c>
       <c r="B74" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>73</v>
@@ -9138,7 +9156,7 @@
         <v>154</v>
       </c>
       <c r="B75" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>73</v>
@@ -9149,7 +9167,7 @@
         <v>143</v>
       </c>
       <c r="B76" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>73</v>
@@ -9160,7 +9178,7 @@
         <v>167</v>
       </c>
       <c r="B77" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>73</v>
@@ -9171,7 +9189,7 @@
         <v>113</v>
       </c>
       <c r="B78" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>73</v>
@@ -9182,7 +9200,7 @@
         <v>21</v>
       </c>
       <c r="B79" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>73</v>
@@ -9193,7 +9211,7 @@
         <v>60</v>
       </c>
       <c r="B80" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>73</v>
@@ -9204,7 +9222,7 @@
         <v>165</v>
       </c>
       <c r="B81" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>73</v>
@@ -9215,7 +9233,7 @@
         <v>213</v>
       </c>
       <c r="B82" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>73</v>
@@ -9226,7 +9244,7 @@
         <v>156</v>
       </c>
       <c r="B83" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>73</v>
@@ -9237,7 +9255,7 @@
         <v>199</v>
       </c>
       <c r="B84" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>73</v>
@@ -9248,7 +9266,7 @@
         <v>193</v>
       </c>
       <c r="B85" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>73</v>
@@ -9259,7 +9277,7 @@
         <v>190</v>
       </c>
       <c r="B86" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>73</v>
@@ -9270,7 +9288,7 @@
         <v>162</v>
       </c>
       <c r="B87" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>73</v>
@@ -9281,7 +9299,7 @@
         <v>168</v>
       </c>
       <c r="B88" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>73</v>
@@ -9292,7 +9310,7 @@
         <v>129</v>
       </c>
       <c r="B89" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>73</v>
@@ -9303,7 +9321,7 @@
         <v>85</v>
       </c>
       <c r="B90" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>73</v>
@@ -9314,7 +9332,7 @@
         <v>53</v>
       </c>
       <c r="B91" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>73</v>
@@ -9325,7 +9343,7 @@
         <v>121</v>
       </c>
       <c r="B92" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>73</v>
@@ -9336,7 +9354,7 @@
         <v>39</v>
       </c>
       <c r="B93" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>73</v>
@@ -9347,7 +9365,7 @@
         <v>19</v>
       </c>
       <c r="B94" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>73</v>
@@ -9358,7 +9376,7 @@
         <v>31</v>
       </c>
       <c r="B95" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>73</v>
@@ -9369,7 +9387,7 @@
         <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C96" s="13" t="s">
         <v>73</v>
@@ -9380,7 +9398,7 @@
         <v>207</v>
       </c>
       <c r="B97" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>73</v>
@@ -9391,7 +9409,7 @@
         <v>25</v>
       </c>
       <c r="B98" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C98" s="13" t="s">
         <v>73</v>
@@ -9402,7 +9420,7 @@
         <v>175</v>
       </c>
       <c r="B99" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>73</v>
@@ -9413,7 +9431,7 @@
         <v>1</v>
       </c>
       <c r="B100" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>73</v>
@@ -9424,7 +9442,7 @@
         <v>96</v>
       </c>
       <c r="B101" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>73</v>
@@ -9435,7 +9453,7 @@
         <v>170</v>
       </c>
       <c r="B102" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>73</v>
@@ -9446,13 +9464,13 @@
         <v>46</v>
       </c>
       <c r="B103" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E103" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -9460,13 +9478,13 @@
         <v>79</v>
       </c>
       <c r="B104" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E104" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -9474,13 +9492,13 @@
         <v>114</v>
       </c>
       <c r="B105" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E105" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -9488,10 +9506,10 @@
         <v>223</v>
       </c>
       <c r="B106" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -9499,10 +9517,10 @@
         <v>44</v>
       </c>
       <c r="B107" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -9510,10 +9528,10 @@
         <v>164</v>
       </c>
       <c r="B108" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -9521,10 +9539,10 @@
         <v>100</v>
       </c>
       <c r="B109" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -9532,10 +9550,10 @@
         <v>55</v>
       </c>
       <c r="B110" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -9543,13 +9561,13 @@
         <v>92</v>
       </c>
       <c r="B111" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D111" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -9557,13 +9575,13 @@
         <v>155</v>
       </c>
       <c r="B112" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D112" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -9571,13 +9589,13 @@
         <v>226</v>
       </c>
       <c r="B113" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D113" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -9585,13 +9603,13 @@
         <v>159</v>
       </c>
       <c r="B114" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D114" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -9599,13 +9617,13 @@
         <v>29</v>
       </c>
       <c r="B115" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D115" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -9613,10 +9631,10 @@
         <v>72</v>
       </c>
       <c r="B116" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -9624,10 +9642,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -9635,10 +9653,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -9646,10 +9664,10 @@
         <v>125</v>
       </c>
       <c r="B119" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -9657,10 +9675,10 @@
         <v>195</v>
       </c>
       <c r="B120" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -9668,10 +9686,10 @@
         <v>90</v>
       </c>
       <c r="B121" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -9679,10 +9697,10 @@
         <v>240</v>
       </c>
       <c r="B122" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -9690,10 +9708,10 @@
         <v>180</v>
       </c>
       <c r="B123" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -9701,10 +9719,10 @@
         <v>38</v>
       </c>
       <c r="B124" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -9712,10 +9730,10 @@
         <v>215</v>
       </c>
       <c r="B125" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -9723,10 +9741,10 @@
         <v>161</v>
       </c>
       <c r="B126" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -9734,10 +9752,10 @@
         <v>59</v>
       </c>
       <c r="B127" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -9745,10 +9763,10 @@
         <v>203</v>
       </c>
       <c r="B128" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -9756,10 +9774,10 @@
         <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -9767,10 +9785,10 @@
         <v>148</v>
       </c>
       <c r="B130" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -9778,10 +9796,10 @@
         <v>176</v>
       </c>
       <c r="B131" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -9789,10 +9807,10 @@
         <v>64</v>
       </c>
       <c r="B132" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -9800,10 +9818,10 @@
         <v>174</v>
       </c>
       <c r="B133" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -9811,10 +9829,10 @@
         <v>128</v>
       </c>
       <c r="B134" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -9822,10 +9840,10 @@
         <v>146</v>
       </c>
       <c r="B135" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -9833,10 +9851,10 @@
         <v>118</v>
       </c>
       <c r="B136" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -9844,10 +9862,10 @@
         <v>78</v>
       </c>
       <c r="B137" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -9855,10 +9873,10 @@
         <v>36</v>
       </c>
       <c r="B138" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -9866,10 +9884,10 @@
         <v>169</v>
       </c>
       <c r="B139" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -9877,10 +9895,10 @@
         <v>24</v>
       </c>
       <c r="B140" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -9888,10 +9906,10 @@
         <v>12</v>
       </c>
       <c r="B141" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -9899,10 +9917,10 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -9910,10 +9928,10 @@
         <v>97</v>
       </c>
       <c r="B143" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -9921,10 +9939,10 @@
         <v>236</v>
       </c>
       <c r="B144" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -9932,10 +9950,10 @@
         <v>56</v>
       </c>
       <c r="B145" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -9943,10 +9961,10 @@
         <v>211</v>
       </c>
       <c r="B146" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -9954,10 +9972,10 @@
         <v>73</v>
       </c>
       <c r="B147" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -9965,10 +9983,10 @@
         <v>7</v>
       </c>
       <c r="B148" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -9976,10 +9994,10 @@
         <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -9987,10 +10005,10 @@
         <v>197</v>
       </c>
       <c r="B150" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -9998,10 +10016,10 @@
         <v>111</v>
       </c>
       <c r="B151" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -10009,10 +10027,10 @@
         <v>109</v>
       </c>
       <c r="B152" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -10020,10 +10038,10 @@
         <v>76</v>
       </c>
       <c r="B153" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -10031,10 +10049,10 @@
         <v>95</v>
       </c>
       <c r="B154" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -10042,10 +10060,10 @@
         <v>33</v>
       </c>
       <c r="B155" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -10053,10 +10071,10 @@
         <v>224</v>
       </c>
       <c r="B156" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -10064,10 +10082,10 @@
         <v>32</v>
       </c>
       <c r="B157" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -10075,10 +10093,10 @@
         <v>75</v>
       </c>
       <c r="B158" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -10086,10 +10104,10 @@
         <v>4</v>
       </c>
       <c r="B159" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -10097,10 +10115,10 @@
         <v>185</v>
       </c>
       <c r="B160" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -10108,10 +10126,10 @@
         <v>74</v>
       </c>
       <c r="B161" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -10119,13 +10137,13 @@
         <v>204</v>
       </c>
       <c r="B162" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D162" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -10133,10 +10151,10 @@
         <v>16</v>
       </c>
       <c r="B163" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -10144,10 +10162,10 @@
         <v>202</v>
       </c>
       <c r="B164" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -10155,10 +10173,10 @@
         <v>136</v>
       </c>
       <c r="B165" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -10166,13 +10184,13 @@
         <v>153</v>
       </c>
       <c r="B166" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D166" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -10180,13 +10198,13 @@
         <v>26</v>
       </c>
       <c r="B167" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D167" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -10194,13 +10212,13 @@
         <v>239</v>
       </c>
       <c r="B168" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D168" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -10208,13 +10226,13 @@
         <v>18</v>
       </c>
       <c r="B169" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D169" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -10222,13 +10240,13 @@
         <v>65</v>
       </c>
       <c r="B170" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D170" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -10236,10 +10254,10 @@
         <v>3</v>
       </c>
       <c r="B171" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -10247,13 +10265,13 @@
         <v>68</v>
       </c>
       <c r="B172" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D172" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -10261,13 +10279,13 @@
         <v>86</v>
       </c>
       <c r="B173" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -10275,13 +10293,13 @@
         <v>77</v>
       </c>
       <c r="B174" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -10289,13 +10307,13 @@
         <v>217</v>
       </c>
       <c r="B175" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D175" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -10303,13 +10321,13 @@
         <v>230</v>
       </c>
       <c r="B176" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D176" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -10317,13 +10335,13 @@
         <v>23</v>
       </c>
       <c r="B177" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D177" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -10331,13 +10349,13 @@
         <v>84</v>
       </c>
       <c r="B178" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D178" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -10345,13 +10363,13 @@
         <v>28</v>
       </c>
       <c r="B179" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D179" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -10359,13 +10377,13 @@
         <v>101</v>
       </c>
       <c r="B180" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D180" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -10373,13 +10391,13 @@
         <v>66</v>
       </c>
       <c r="B181" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -10387,13 +10405,13 @@
         <v>82</v>
       </c>
       <c r="B182" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D182" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -10401,13 +10419,13 @@
         <v>166</v>
       </c>
       <c r="B183" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D183" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -10415,13 +10433,13 @@
         <v>232</v>
       </c>
       <c r="B184" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D184" s="15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -10429,13 +10447,13 @@
         <v>83</v>
       </c>
       <c r="B185" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D185" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -10443,13 +10461,13 @@
         <v>88</v>
       </c>
       <c r="B186" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D186" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -10457,10 +10475,10 @@
         <v>184</v>
       </c>
       <c r="B187" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -10468,13 +10486,13 @@
         <v>91</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D188" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -10482,13 +10500,13 @@
         <v>205</v>
       </c>
       <c r="B189" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D189" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -10496,16 +10514,16 @@
         <v>157</v>
       </c>
       <c r="B190" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D190" t="s">
+        <v>460</v>
+      </c>
+      <c r="E190" t="s">
         <v>461</v>
-      </c>
-      <c r="E190" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -10513,16 +10531,16 @@
         <v>134</v>
       </c>
       <c r="B191" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D191" t="s">
+        <v>460</v>
+      </c>
+      <c r="E191" t="s">
         <v>461</v>
-      </c>
-      <c r="E191" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -10530,16 +10548,16 @@
         <v>222</v>
       </c>
       <c r="B192" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D192" t="s">
+        <v>462</v>
+      </c>
+      <c r="E192" t="s">
         <v>463</v>
-      </c>
-      <c r="E192" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -10547,16 +10565,16 @@
         <v>158</v>
       </c>
       <c r="B193" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D193" t="s">
+        <v>462</v>
+      </c>
+      <c r="E193" t="s">
         <v>463</v>
-      </c>
-      <c r="E193" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -10564,16 +10582,16 @@
         <v>110</v>
       </c>
       <c r="B194" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D194" t="s">
+        <v>462</v>
+      </c>
+      <c r="E194" t="s">
         <v>463</v>
-      </c>
-      <c r="E194" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -10581,16 +10599,16 @@
         <v>235</v>
       </c>
       <c r="B195" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D195" t="s">
+        <v>462</v>
+      </c>
+      <c r="E195" t="s">
         <v>463</v>
-      </c>
-      <c r="E195" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -10598,16 +10616,16 @@
         <v>200</v>
       </c>
       <c r="B196" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D196" t="s">
+        <v>462</v>
+      </c>
+      <c r="E196" t="s">
         <v>463</v>
-      </c>
-      <c r="E196" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -10615,16 +10633,16 @@
         <v>89</v>
       </c>
       <c r="B197" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D197" t="s">
+        <v>462</v>
+      </c>
+      <c r="E197" t="s">
         <v>463</v>
-      </c>
-      <c r="E197" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -10632,10 +10650,10 @@
         <v>127</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -10643,10 +10661,10 @@
         <v>54</v>
       </c>
       <c r="B199" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -10654,10 +10672,10 @@
         <v>237</v>
       </c>
       <c r="B200" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -10665,10 +10683,10 @@
         <v>47</v>
       </c>
       <c r="B201" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -10676,10 +10694,10 @@
         <v>48</v>
       </c>
       <c r="B202" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -10687,10 +10705,10 @@
         <v>221</v>
       </c>
       <c r="B203" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -10698,10 +10716,10 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -10709,10 +10727,10 @@
         <v>117</v>
       </c>
       <c r="B205" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -10720,13 +10738,13 @@
         <v>138</v>
       </c>
       <c r="B206" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D206" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -10734,13 +10752,13 @@
         <v>81</v>
       </c>
       <c r="B207" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D207" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -10748,13 +10766,13 @@
         <v>160</v>
       </c>
       <c r="B208" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D208" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -10762,10 +10780,10 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -10773,10 +10791,10 @@
         <v>6</v>
       </c>
       <c r="B210" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -10784,10 +10802,10 @@
         <v>106</v>
       </c>
       <c r="B211" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -10795,10 +10813,10 @@
         <v>147</v>
       </c>
       <c r="B212" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -10806,10 +10824,10 @@
         <v>57</v>
       </c>
       <c r="B213" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -10817,10 +10835,10 @@
         <v>151</v>
       </c>
       <c r="B214" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -10828,10 +10846,10 @@
         <v>124</v>
       </c>
       <c r="B215" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -10839,10 +10857,10 @@
         <v>173</v>
       </c>
       <c r="B216" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -10850,10 +10868,10 @@
         <v>98</v>
       </c>
       <c r="B217" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -10861,10 +10879,10 @@
         <v>233</v>
       </c>
       <c r="B218" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -10872,10 +10890,10 @@
         <v>227</v>
       </c>
       <c r="B219" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -10883,10 +10901,10 @@
         <v>70</v>
       </c>
       <c r="B220" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -10894,10 +10912,10 @@
         <v>102</v>
       </c>
       <c r="B221" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -10905,10 +10923,10 @@
         <v>35</v>
       </c>
       <c r="B222" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -10916,10 +10934,10 @@
         <v>152</v>
       </c>
       <c r="B223" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -10927,10 +10945,10 @@
         <v>45</v>
       </c>
       <c r="B224" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -10938,10 +10956,10 @@
         <v>15</v>
       </c>
       <c r="B225" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -10949,10 +10967,10 @@
         <v>34</v>
       </c>
       <c r="B226" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -10960,10 +10978,10 @@
         <v>133</v>
       </c>
       <c r="B227" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -10971,10 +10989,10 @@
         <v>201</v>
       </c>
       <c r="B228" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -10982,10 +11000,10 @@
         <v>123</v>
       </c>
       <c r="B229" t="s">
+        <v>422</v>
+      </c>
+      <c r="C229" s="12" t="s">
         <v>423</v>
-      </c>
-      <c r="C229" s="12" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -10993,10 +11011,10 @@
         <v>5</v>
       </c>
       <c r="B230" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -11004,10 +11022,10 @@
         <v>210</v>
       </c>
       <c r="B231" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -11015,10 +11033,10 @@
         <v>183</v>
       </c>
       <c r="B232" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -11026,10 +11044,10 @@
         <v>220</v>
       </c>
       <c r="B233" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -11037,10 +11055,10 @@
         <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -11048,10 +11066,10 @@
         <v>228</v>
       </c>
       <c r="B235" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -11059,10 +11077,10 @@
         <v>198</v>
       </c>
       <c r="B236" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -11070,10 +11088,10 @@
         <v>112</v>
       </c>
       <c r="B237" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -11081,10 +11099,10 @@
         <v>52</v>
       </c>
       <c r="B238" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -11092,10 +11110,10 @@
         <v>130</v>
       </c>
       <c r="B239" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -11103,10 +11121,10 @@
         <v>177</v>
       </c>
       <c r="B240" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -11114,10 +11132,10 @@
         <v>93</v>
       </c>
       <c r="B241" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -11125,10 +11143,10 @@
         <v>187</v>
       </c>
       <c r="B242" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -11136,15 +11154,15 @@
         <v>13</v>
       </c>
       <c r="B243" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="409.6">
       <c r="B244" s="16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C244" s="2"/>
     </row>
